--- a/Plantillas modelos impuestos UHY.xlsx
+++ b/Plantillas modelos impuestos UHY.xlsx
@@ -1897,10 +1897,8 @@
       <c r="H8" s="26" t="n"/>
       <c r="I8" s="26" t="n"/>
       <c r="J8" s="30" t="n"/>
-      <c r="K8" s="27" t="inlineStr">
-        <is>
-          <t>539,49</t>
-        </is>
+      <c r="K8" s="27" t="n">
+        <v>539.49</v>
       </c>
       <c r="L8" s="27" t="n"/>
       <c r="M8" s="27" t="n"/>
@@ -1935,10 +1933,8 @@
       <c r="H9" s="27" t="n"/>
       <c r="I9" s="27" t="n"/>
       <c r="J9" s="27" t="n"/>
-      <c r="K9" s="27" t="inlineStr">
-        <is>
-          <t>878.121,61</t>
-        </is>
+      <c r="K9" s="27" t="n">
+        <v>878121.61</v>
       </c>
       <c r="L9" s="27" t="n"/>
       <c r="M9" s="27" t="n"/>
@@ -1973,10 +1969,8 @@
       <c r="H10" s="27" t="n"/>
       <c r="I10" s="27" t="n"/>
       <c r="J10" s="27" t="n"/>
-      <c r="K10" s="27" t="inlineStr">
-        <is>
-          <t>1.523,96</t>
-        </is>
+      <c r="K10" s="27" t="n">
+        <v>1523.96</v>
       </c>
       <c r="L10" s="27" t="n"/>
       <c r="M10" s="27" t="n"/>
@@ -2045,10 +2039,8 @@
       <c r="H12" s="33" t="n"/>
       <c r="I12" s="33" t="n"/>
       <c r="J12" s="33" t="n"/>
-      <c r="K12" s="33" t="inlineStr">
-        <is>
-          <t>-44.504,79</t>
-        </is>
+      <c r="K12" s="33" t="n">
+        <v>-44504.79</v>
       </c>
       <c r="L12" s="33" t="n"/>
       <c r="M12" s="33" t="n"/>
@@ -2320,10 +2312,8 @@
       <c r="H20" s="27" t="n"/>
       <c r="I20" s="27" t="n"/>
       <c r="J20" s="27" t="n"/>
-      <c r="K20" s="27" t="inlineStr">
-        <is>
-          <t>53,96</t>
-        </is>
+      <c r="K20" s="27" t="n">
+        <v>53.96</v>
       </c>
       <c r="L20" s="27" t="n"/>
       <c r="M20" s="27" t="n"/>
@@ -2358,10 +2348,8 @@
       <c r="H21" s="27" t="n"/>
       <c r="I21" s="27" t="n"/>
       <c r="J21" s="27" t="n"/>
-      <c r="K21" s="27" t="inlineStr">
-        <is>
-          <t>184.406,17</t>
-        </is>
+      <c r="K21" s="27" t="n">
+        <v>184406.17</v>
       </c>
       <c r="L21" s="27" t="n"/>
       <c r="M21" s="27" t="n"/>
@@ -2396,10 +2384,8 @@
       <c r="H22" s="27" t="n"/>
       <c r="I22" s="27" t="n"/>
       <c r="J22" s="27" t="n"/>
-      <c r="K22" s="27" t="inlineStr">
-        <is>
-          <t>320,03</t>
-        </is>
+      <c r="K22" s="27" t="n">
+        <v>320.03</v>
       </c>
       <c r="L22" s="27" t="n"/>
       <c r="M22" s="27" t="n"/>
@@ -2468,10 +2454,8 @@
       <c r="H24" s="33" t="n"/>
       <c r="I24" s="33" t="n"/>
       <c r="J24" s="33" t="n"/>
-      <c r="K24" s="33" t="inlineStr">
-        <is>
-          <t>-9.344,28</t>
-        </is>
+      <c r="K24" s="33" t="n">
+        <v>-9344.280000000001</v>
       </c>
       <c r="L24" s="33" t="n"/>
       <c r="M24" s="33" t="n"/>
@@ -2709,10 +2693,8 @@
       <c r="H31" s="27" t="n"/>
       <c r="I31" s="27" t="n"/>
       <c r="J31" s="27" t="n"/>
-      <c r="K31" s="27" t="inlineStr">
-        <is>
-          <t>789.653,47</t>
-        </is>
+      <c r="K31" s="27" t="n">
+        <v>789653.47</v>
       </c>
       <c r="L31" s="27" t="n"/>
       <c r="M31" s="27" t="n"/>
@@ -2747,10 +2729,8 @@
       <c r="H32" s="27" t="n"/>
       <c r="I32" s="27" t="n"/>
       <c r="J32" s="27" t="n"/>
-      <c r="K32" s="27" t="inlineStr">
-        <is>
-          <t>978,00</t>
-        </is>
+      <c r="K32" s="27" t="n">
+        <v>978</v>
       </c>
       <c r="L32" s="27" t="n"/>
       <c r="M32" s="27" t="n"/>
@@ -2853,10 +2833,8 @@
       <c r="H35" s="27" t="n"/>
       <c r="I35" s="27" t="n"/>
       <c r="J35" s="27" t="n"/>
-      <c r="K35" s="27" t="inlineStr">
-        <is>
-          <t>1.523,96</t>
-        </is>
+      <c r="K35" s="27" t="n">
+        <v>1523.96</v>
       </c>
       <c r="L35" s="27" t="n"/>
       <c r="M35" s="27" t="n"/>
@@ -2925,10 +2903,8 @@
       <c r="H37" s="27" t="n"/>
       <c r="I37" s="27" t="n"/>
       <c r="J37" s="27" t="n"/>
-      <c r="K37" s="27" t="inlineStr">
-        <is>
-          <t>-127.211,56</t>
-        </is>
+      <c r="K37" s="27" t="n">
+        <v>-127211.56</v>
       </c>
       <c r="L37" s="27" t="n"/>
       <c r="M37" s="27" t="n"/>
@@ -3059,10 +3035,8 @@
       <c r="H41" s="27" t="n"/>
       <c r="I41" s="27" t="n"/>
       <c r="J41" s="27" t="n"/>
-      <c r="K41" s="27" t="inlineStr">
-        <is>
-          <t>165.739,60</t>
-        </is>
+      <c r="K41" s="27" t="n">
+        <v>165739.6</v>
       </c>
       <c r="L41" s="27" t="n"/>
       <c r="M41" s="27" t="n"/>
@@ -3097,10 +3071,8 @@
       <c r="H42" s="27" t="n"/>
       <c r="I42" s="27" t="n"/>
       <c r="J42" s="27" t="n"/>
-      <c r="K42" s="27" t="inlineStr">
-        <is>
-          <t>205,38</t>
-        </is>
+      <c r="K42" s="27" t="n">
+        <v>205.38</v>
       </c>
       <c r="L42" s="27" t="n"/>
       <c r="M42" s="27" t="n"/>
@@ -3203,10 +3175,8 @@
       <c r="H45" s="27" t="n"/>
       <c r="I45" s="27" t="n"/>
       <c r="J45" s="27" t="n"/>
-      <c r="K45" s="27" t="inlineStr">
-        <is>
-          <t>320,03</t>
-        </is>
+      <c r="K45" s="27" t="n">
+        <v>320.03</v>
       </c>
       <c r="L45" s="27" t="n"/>
       <c r="M45" s="27" t="n"/>
@@ -3275,10 +3245,8 @@
       <c r="H47" s="27" t="n"/>
       <c r="I47" s="27" t="n"/>
       <c r="J47" s="27" t="n"/>
-      <c r="K47" s="27" t="inlineStr">
-        <is>
-          <t>-26.714,41</t>
-        </is>
+      <c r="K47" s="27" t="n">
+        <v>-26714.41</v>
       </c>
       <c r="L47" s="27" t="n"/>
       <c r="M47" s="27" t="n"/>

--- a/Plantillas modelos impuestos UHY.xlsx
+++ b/Plantillas modelos impuestos UHY.xlsx
@@ -3692,10 +3692,8 @@
       <c r="H61" s="27" t="n"/>
       <c r="I61" s="27" t="n"/>
       <c r="J61" s="27" t="n"/>
-      <c r="K61" s="27" t="inlineStr">
-        <is>
-          <t>1.949,52</t>
-        </is>
+      <c r="K61" s="27" t="n">
+        <v>1949.52</v>
       </c>
       <c r="L61" s="27" t="n"/>
       <c r="M61" s="27" t="n"/>
@@ -3730,10 +3728,8 @@
       <c r="H62" s="27" t="n"/>
       <c r="I62" s="27" t="n"/>
       <c r="J62" s="27" t="n"/>
-      <c r="K62" s="27" t="inlineStr">
-        <is>
-          <t>12.432,50</t>
-        </is>
+      <c r="K62" s="27" t="n">
+        <v>12432.5</v>
       </c>
       <c r="L62" s="27" t="n"/>
       <c r="M62" s="27" t="n"/>

--- a/Plantillas modelos impuestos UHY.xlsx
+++ b/Plantillas modelos impuestos UHY.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="notas " sheetId="1" state="visible" r:id="rId1"/>
@@ -1679,7 +1679,7 @@
       <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="3.77734375" customWidth="1" style="70" min="1" max="1"/>
     <col width="18.77734375" customWidth="1" style="70" min="2" max="2"/>
@@ -1900,8 +1900,12 @@
       <c r="K8" s="27" t="n">
         <v>539.49</v>
       </c>
-      <c r="L8" s="27" t="n"/>
-      <c r="M8" s="27" t="n"/>
+      <c r="L8" s="27" t="n">
+        <v>539.49</v>
+      </c>
+      <c r="M8" s="27" t="n">
+        <v>539.49</v>
+      </c>
       <c r="N8" s="27" t="n"/>
       <c r="O8" s="27" t="n"/>
       <c r="P8" s="27" t="n"/>
@@ -1936,8 +1940,12 @@
       <c r="K9" s="27" t="n">
         <v>878121.61</v>
       </c>
-      <c r="L9" s="27" t="n"/>
-      <c r="M9" s="27" t="n"/>
+      <c r="L9" s="27" t="n">
+        <v>878121.61</v>
+      </c>
+      <c r="M9" s="27" t="n">
+        <v>878121.61</v>
+      </c>
       <c r="N9" s="27" t="n"/>
       <c r="O9" s="27" t="n"/>
       <c r="P9" s="26" t="n"/>
@@ -1972,8 +1980,12 @@
       <c r="K10" s="27" t="n">
         <v>1523.96</v>
       </c>
-      <c r="L10" s="27" t="n"/>
-      <c r="M10" s="27" t="n"/>
+      <c r="L10" s="27" t="n">
+        <v>1523.96</v>
+      </c>
+      <c r="M10" s="27" t="n">
+        <v>1523.96</v>
+      </c>
       <c r="N10" s="27" t="n"/>
       <c r="O10" s="27" t="n"/>
       <c r="P10" s="27" t="n"/>
@@ -2042,8 +2054,12 @@
       <c r="K12" s="33" t="n">
         <v>-44504.79</v>
       </c>
-      <c r="L12" s="33" t="n"/>
-      <c r="M12" s="33" t="n"/>
+      <c r="L12" s="33" t="n">
+        <v>-44504.79</v>
+      </c>
+      <c r="M12" s="33" t="n">
+        <v>-44504.79</v>
+      </c>
       <c r="N12" s="33" t="n"/>
       <c r="O12" s="33" t="n"/>
       <c r="P12" s="33" t="n"/>
@@ -2315,8 +2331,12 @@
       <c r="K20" s="27" t="n">
         <v>53.96</v>
       </c>
-      <c r="L20" s="27" t="n"/>
-      <c r="M20" s="27" t="n"/>
+      <c r="L20" s="27" t="n">
+        <v>53.96</v>
+      </c>
+      <c r="M20" s="27" t="n">
+        <v>53.96</v>
+      </c>
       <c r="N20" s="27" t="n"/>
       <c r="O20" s="27" t="n"/>
       <c r="P20" s="27" t="n"/>
@@ -2351,8 +2371,12 @@
       <c r="K21" s="27" t="n">
         <v>184406.17</v>
       </c>
-      <c r="L21" s="27" t="n"/>
-      <c r="M21" s="27" t="n"/>
+      <c r="L21" s="27" t="n">
+        <v>184406.17</v>
+      </c>
+      <c r="M21" s="27" t="n">
+        <v>184406.17</v>
+      </c>
       <c r="N21" s="27" t="n"/>
       <c r="O21" s="27" t="n"/>
       <c r="P21" s="27" t="n"/>
@@ -2387,8 +2411,12 @@
       <c r="K22" s="27" t="n">
         <v>320.03</v>
       </c>
-      <c r="L22" s="27" t="n"/>
-      <c r="M22" s="27" t="n"/>
+      <c r="L22" s="27" t="n">
+        <v>320.03</v>
+      </c>
+      <c r="M22" s="27" t="n">
+        <v>320.03</v>
+      </c>
       <c r="N22" s="27" t="n"/>
       <c r="O22" s="27" t="n"/>
       <c r="P22" s="27" t="n"/>
@@ -2457,8 +2485,12 @@
       <c r="K24" s="33" t="n">
         <v>-9344.280000000001</v>
       </c>
-      <c r="L24" s="33" t="n"/>
-      <c r="M24" s="33" t="n"/>
+      <c r="L24" s="33" t="n">
+        <v>-9344.280000000001</v>
+      </c>
+      <c r="M24" s="33" t="n">
+        <v>-9344.280000000001</v>
+      </c>
       <c r="N24" s="33" t="n"/>
       <c r="O24" s="33" t="n"/>
       <c r="P24" s="33" t="n"/>
@@ -2696,8 +2728,12 @@
       <c r="K31" s="27" t="n">
         <v>789653.47</v>
       </c>
-      <c r="L31" s="27" t="n"/>
-      <c r="M31" s="27" t="n"/>
+      <c r="L31" s="27" t="n">
+        <v>789653.47</v>
+      </c>
+      <c r="M31" s="27" t="n">
+        <v>789653.47</v>
+      </c>
       <c r="N31" s="27" t="n"/>
       <c r="O31" s="27" t="n"/>
       <c r="P31" s="27" t="n"/>
@@ -2732,8 +2768,12 @@
       <c r="K32" s="27" t="n">
         <v>978</v>
       </c>
-      <c r="L32" s="27" t="n"/>
-      <c r="M32" s="27" t="n"/>
+      <c r="L32" s="27" t="n">
+        <v>978</v>
+      </c>
+      <c r="M32" s="27" t="n">
+        <v>978</v>
+      </c>
       <c r="N32" s="27" t="n"/>
       <c r="O32" s="27" t="n"/>
       <c r="P32" s="27" t="n"/>
@@ -2836,8 +2876,12 @@
       <c r="K35" s="27" t="n">
         <v>1523.96</v>
       </c>
-      <c r="L35" s="27" t="n"/>
-      <c r="M35" s="27" t="n"/>
+      <c r="L35" s="27" t="n">
+        <v>1523.96</v>
+      </c>
+      <c r="M35" s="27" t="n">
+        <v>1523.96</v>
+      </c>
       <c r="N35" s="27" t="n"/>
       <c r="O35" s="27" t="n"/>
       <c r="P35" s="27" t="n"/>
@@ -2906,8 +2950,12 @@
       <c r="K37" s="27" t="n">
         <v>-127211.56</v>
       </c>
-      <c r="L37" s="27" t="n"/>
-      <c r="M37" s="27" t="n"/>
+      <c r="L37" s="27" t="n">
+        <v>-127211.56</v>
+      </c>
+      <c r="M37" s="27" t="n">
+        <v>-127211.56</v>
+      </c>
       <c r="N37" s="27" t="n"/>
       <c r="O37" s="27" t="n"/>
       <c r="P37" s="27" t="n"/>
@@ -3038,8 +3086,12 @@
       <c r="K41" s="27" t="n">
         <v>165739.6</v>
       </c>
-      <c r="L41" s="27" t="n"/>
-      <c r="M41" s="27" t="n"/>
+      <c r="L41" s="27" t="n">
+        <v>165739.6</v>
+      </c>
+      <c r="M41" s="27" t="n">
+        <v>165739.6</v>
+      </c>
       <c r="N41" s="27" t="n"/>
       <c r="O41" s="27" t="n"/>
       <c r="P41" s="27" t="n"/>
@@ -3074,8 +3126,12 @@
       <c r="K42" s="27" t="n">
         <v>205.38</v>
       </c>
-      <c r="L42" s="27" t="n"/>
-      <c r="M42" s="27" t="n"/>
+      <c r="L42" s="27" t="n">
+        <v>205.38</v>
+      </c>
+      <c r="M42" s="27" t="n">
+        <v>205.38</v>
+      </c>
       <c r="N42" s="27" t="n"/>
       <c r="O42" s="27" t="n"/>
       <c r="P42" s="27" t="n"/>
@@ -3178,8 +3234,12 @@
       <c r="K45" s="27" t="n">
         <v>320.03</v>
       </c>
-      <c r="L45" s="27" t="n"/>
-      <c r="M45" s="27" t="n"/>
+      <c r="L45" s="27" t="n">
+        <v>320.03</v>
+      </c>
+      <c r="M45" s="27" t="n">
+        <v>320.03</v>
+      </c>
       <c r="N45" s="27" t="n"/>
       <c r="O45" s="27" t="n"/>
       <c r="P45" s="27" t="n"/>
@@ -3248,8 +3308,12 @@
       <c r="K47" s="27" t="n">
         <v>-26714.41</v>
       </c>
-      <c r="L47" s="27" t="n"/>
-      <c r="M47" s="27" t="n"/>
+      <c r="L47" s="27" t="n">
+        <v>-26714.41</v>
+      </c>
+      <c r="M47" s="27" t="n">
+        <v>-26714.41</v>
+      </c>
       <c r="N47" s="27" t="n"/>
       <c r="O47" s="27" t="n"/>
       <c r="P47" s="27" t="n"/>
@@ -3567,8 +3631,16 @@
           <t>35.885,28</t>
         </is>
       </c>
-      <c r="L57" s="27" t="n"/>
-      <c r="M57" s="27" t="n"/>
+      <c r="L57" s="27" t="inlineStr">
+        <is>
+          <t>35.885,28</t>
+        </is>
+      </c>
+      <c r="M57" s="27" t="inlineStr">
+        <is>
+          <t>35.885,28</t>
+        </is>
+      </c>
       <c r="N57" s="27" t="n"/>
       <c r="O57" s="27" t="n"/>
       <c r="P57" s="27" t="n"/>
@@ -3695,8 +3767,12 @@
       <c r="K61" s="27" t="n">
         <v>1949.52</v>
       </c>
-      <c r="L61" s="27" t="n"/>
-      <c r="M61" s="27" t="n"/>
+      <c r="L61" s="27" t="n">
+        <v>1949.52</v>
+      </c>
+      <c r="M61" s="27" t="n">
+        <v>1949.52</v>
+      </c>
       <c r="N61" s="27" t="n"/>
       <c r="O61" s="27" t="n"/>
       <c r="P61" s="27" t="n"/>
@@ -3731,8 +3807,12 @@
       <c r="K62" s="27" t="n">
         <v>12432.5</v>
       </c>
-      <c r="L62" s="27" t="n"/>
-      <c r="M62" s="27" t="n"/>
+      <c r="L62" s="27" t="n">
+        <v>12432.5</v>
+      </c>
+      <c r="M62" s="27" t="n">
+        <v>12432.5</v>
+      </c>
       <c r="N62" s="27" t="n"/>
       <c r="O62" s="27" t="n"/>
       <c r="P62" s="27" t="n"/>
@@ -4484,7 +4564,7 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="3.77734375" customWidth="1" style="70" min="1" max="1"/>
     <col width="49.21875" customWidth="1" style="70" min="2" max="2"/>
@@ -4666,7 +4746,9 @@
       <c r="G8" s="135" t="n"/>
       <c r="H8" s="135" t="n"/>
       <c r="I8" s="135" t="n"/>
-      <c r="J8" s="135" t="n"/>
+      <c r="J8" s="135" t="n">
+        <v>50</v>
+      </c>
       <c r="K8" s="135" t="n"/>
       <c r="L8" s="135" t="n"/>
       <c r="M8" s="135" t="n"/>
@@ -4700,7 +4782,9 @@
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
       <c r="I9" s="27" t="n"/>
-      <c r="J9" s="27" t="n"/>
+      <c r="J9" s="27" t="n">
+        <v>91023.50999999999</v>
+      </c>
       <c r="K9" s="27" t="n"/>
       <c r="L9" s="27" t="n"/>
       <c r="M9" s="27" t="n"/>
@@ -4733,7 +4817,9 @@
       <c r="G10" s="52" t="n"/>
       <c r="H10" s="52" t="n"/>
       <c r="I10" s="52" t="n"/>
-      <c r="J10" s="52" t="n"/>
+      <c r="J10" s="52" t="n">
+        <v>2825.92</v>
+      </c>
       <c r="K10" s="52" t="n"/>
       <c r="L10" s="52" t="n"/>
       <c r="M10" s="52" t="n"/>
@@ -5023,7 +5109,9 @@
       <c r="G20" s="135" t="n"/>
       <c r="H20" s="135" t="n"/>
       <c r="I20" s="135" t="n"/>
-      <c r="J20" s="135" t="n"/>
+      <c r="J20" s="135" t="n">
+        <v>4</v>
+      </c>
       <c r="K20" s="135" t="n"/>
       <c r="L20" s="135" t="n"/>
       <c r="M20" s="135" t="n"/>
@@ -5053,7 +5141,9 @@
       <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
       <c r="I21" s="27" t="n"/>
-      <c r="J21" s="27" t="n"/>
+      <c r="J21" s="27" t="n">
+        <v>1629.85</v>
+      </c>
       <c r="K21" s="27" t="n"/>
       <c r="L21" s="27" t="n"/>
       <c r="M21" s="27" t="n"/>
@@ -5083,7 +5173,9 @@
       <c r="G22" s="52" t="n"/>
       <c r="H22" s="52" t="n"/>
       <c r="I22" s="52" t="n"/>
-      <c r="J22" s="52" t="n"/>
+      <c r="J22" s="52" t="n">
+        <v>128.3</v>
+      </c>
       <c r="K22" s="52" t="n"/>
       <c r="L22" s="52" t="n"/>
       <c r="M22" s="52" t="n"/>
@@ -6843,7 +6935,7 @@
       <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="3.77734375" customWidth="1" style="70" min="1" max="1"/>
     <col width="36.5546875" customWidth="1" style="70" min="2" max="2"/>
@@ -7479,7 +7571,7 @@
       <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5546875" customWidth="1" style="181" min="1" max="1"/>
     <col width="24" customWidth="1" style="181" min="2" max="2"/>
@@ -11828,7 +11920,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="3.77734375" customWidth="1" style="190" min="1" max="1"/>
     <col width="22.33203125" customWidth="1" style="190" min="2" max="2"/>
@@ -12373,7 +12465,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.6640625" customWidth="1" style="190" min="1" max="16384"/>
   </cols>
@@ -13138,7 +13230,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.6640625" customWidth="1" style="223" min="1" max="1"/>
     <col width="16" customWidth="1" style="223" min="2" max="2"/>

--- a/Plantillas modelos impuestos UHY.xlsx
+++ b/Plantillas modelos impuestos UHY.xlsx
@@ -201,14 +201,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="23"/>
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="26"/>
+        <fgColor indexed="54"/>
+        <bgColor indexed="23"/>
       </patternFill>
     </fill>
     <fill>
@@ -567,7 +567,6 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -584,8 +583,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -616,14 +616,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="14"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -632,40 +632,40 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="14"/>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="14"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="11" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="11" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -677,10 +677,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="11" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -770,7 +770,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="13" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -808,7 +808,7 @@
     <xf numFmtId="4" fontId="15" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -825,8 +825,8 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="14"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -835,12 +835,12 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -849,7 +849,7 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="5" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="10" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="4" fontId="10" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="14"/>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -898,7 +898,7 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -929,7 +929,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -939,71 +939,71 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="9"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="8"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="17"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="14">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="13">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="14">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="13">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="9"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="8"/>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="17"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1021,13 +1021,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="9" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="9" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="13" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="13" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1036,10 +1036,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1051,9 +1051,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="17"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="17"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1061,25 +1072,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
-    <cellStyle name="Millares 6" xfId="2"/>
-    <cellStyle name="Normal 10" xfId="3"/>
-    <cellStyle name="Normal 11" xfId="4"/>
-    <cellStyle name="Normal 12" xfId="5"/>
-    <cellStyle name="Normal 13" xfId="6"/>
-    <cellStyle name="Normal 14" xfId="7"/>
-    <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="Normal 3" xfId="9"/>
-    <cellStyle name="Normal 6" xfId="10"/>
-    <cellStyle name="Normal 7" xfId="11"/>
-    <cellStyle name="Normal 8" xfId="12"/>
-    <cellStyle name="Normal 9" xfId="13"/>
-    <cellStyle name="Normal 95" xfId="14"/>
-    <cellStyle name="Normal_B200" xfId="15"/>
-    <cellStyle name="Normal_S200" xfId="16"/>
+    <cellStyle name="Millares 6" xfId="1"/>
+    <cellStyle name="Normal 10" xfId="2"/>
+    <cellStyle name="Normal 11" xfId="3"/>
+    <cellStyle name="Normal 12" xfId="4"/>
+    <cellStyle name="Normal 13" xfId="5"/>
+    <cellStyle name="Normal 14" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="7"/>
+    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 6" xfId="9"/>
+    <cellStyle name="Normal 7" xfId="10"/>
+    <cellStyle name="Normal 8" xfId="11"/>
+    <cellStyle name="Normal 9" xfId="12"/>
+    <cellStyle name="Normal 95" xfId="13"/>
+    <cellStyle name="Normal_B200" xfId="14"/>
+    <cellStyle name="Normal_S200" xfId="15"/>
+    <cellStyle name="Porcentaje" xfId="16" builtinId="5"/>
     <cellStyle name="Porcentaje 2" xfId="17"/>
   </cellStyles>
   <dxfs count="2">
@@ -1187,7 +1204,7 @@
     </to>
     <pic>
       <nvPicPr>
-        <cNvPr id="8193" name="Imagen 6"/>
+        <cNvPr id="8194" name="Imagen 6"/>
         <cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
@@ -1202,7 +1219,7 @@
       <spPr bwMode="auto">
         <a:xfrm>
           <a:off x="518160" y="0"/>
-          <a:ext cx="2880360" cy="1021080"/>
+          <a:ext cx="2872740" cy="1021080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -1220,7 +1237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1532,17 +1549,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </a:spPr>
       <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
@@ -1574,28 +1580,12 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </a:spPr>
       <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -1672,14 +1662,14 @@
   </sheetPr>
   <dimension ref="B2:W90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="3.77734375" customWidth="1" style="70" min="1" max="1"/>
     <col width="18.77734375" customWidth="1" style="70" min="2" max="2"/>
@@ -1691,7 +1681,7 @@
     <col width="14.21875" customWidth="1" style="70" min="15" max="15"/>
     <col width="15.21875" customWidth="1" style="70" min="16" max="17"/>
     <col width="16.109375" customWidth="1" style="70" min="18" max="19"/>
-    <col width="19.5546875" customWidth="1" style="70" min="20" max="20"/>
+    <col width="19.6640625" customWidth="1" style="70" min="20" max="20"/>
     <col width="12.5546875" customWidth="1" style="70" min="21" max="16384"/>
   </cols>
   <sheetData>
@@ -1897,15 +1887,9 @@
       <c r="H8" s="26" t="n"/>
       <c r="I8" s="26" t="n"/>
       <c r="J8" s="30" t="n"/>
-      <c r="K8" s="27" t="n">
-        <v>539.49</v>
-      </c>
-      <c r="L8" s="27" t="n">
-        <v>539.49</v>
-      </c>
-      <c r="M8" s="27" t="n">
-        <v>539.49</v>
-      </c>
+      <c r="K8" s="27" t="n"/>
+      <c r="L8" s="27" t="n"/>
+      <c r="M8" s="27" t="n"/>
       <c r="N8" s="27" t="n"/>
       <c r="O8" s="27" t="n"/>
       <c r="P8" s="27" t="n"/>
@@ -1932,23 +1916,31 @@
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
+      <c r="F9" s="27" t="n">
+        <v>888020.71</v>
+      </c>
+      <c r="G9" s="27" t="n">
+        <v>863062.86</v>
+      </c>
       <c r="H9" s="27" t="n"/>
-      <c r="I9" s="27" t="n"/>
+      <c r="I9" s="27" t="n">
+        <v>744326.63</v>
+      </c>
       <c r="J9" s="27" t="n"/>
       <c r="K9" s="27" t="n">
-        <v>878121.61</v>
+        <v>891652.3199999999</v>
       </c>
       <c r="L9" s="27" t="n">
-        <v>878121.61</v>
-      </c>
-      <c r="M9" s="27" t="n">
-        <v>878121.61</v>
-      </c>
+        <v>635831.0600000001</v>
+      </c>
+      <c r="M9" s="27" t="n"/>
       <c r="N9" s="27" t="n"/>
-      <c r="O9" s="27" t="n"/>
-      <c r="P9" s="26" t="n"/>
+      <c r="O9" s="27" t="n">
+        <v>1045038.81</v>
+      </c>
+      <c r="P9" s="26" t="n">
+        <v>848650</v>
+      </c>
       <c r="Q9" s="31" t="n"/>
       <c r="R9" s="29">
         <f>SUM(E9:P9)</f>
@@ -1972,23 +1964,31 @@
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="n"/>
+      <c r="F10" s="27" t="n">
+        <v>19670.59</v>
+      </c>
+      <c r="G10" s="27" t="n">
+        <v>41190.69</v>
+      </c>
       <c r="H10" s="27" t="n"/>
-      <c r="I10" s="27" t="n"/>
+      <c r="I10" s="27" t="n">
+        <v>50730.54</v>
+      </c>
       <c r="J10" s="27" t="n"/>
       <c r="K10" s="27" t="n">
-        <v>1523.96</v>
+        <v>68563.77</v>
       </c>
       <c r="L10" s="27" t="n">
-        <v>1523.96</v>
-      </c>
-      <c r="M10" s="27" t="n">
-        <v>1523.96</v>
-      </c>
+        <v>25814.09</v>
+      </c>
+      <c r="M10" s="27" t="n"/>
       <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
-      <c r="P10" s="27" t="n"/>
+      <c r="O10" s="27" t="n">
+        <v>44041.96</v>
+      </c>
+      <c r="P10" s="27" t="n">
+        <v>48135.87</v>
+      </c>
       <c r="Q10" s="32" t="n"/>
       <c r="R10" s="29">
         <f>SUM(E10:P10)</f>
@@ -2046,23 +2046,31 @@
         </is>
       </c>
       <c r="E12" s="33" t="n"/>
-      <c r="F12" s="33" t="n"/>
-      <c r="G12" s="33" t="n"/>
+      <c r="F12" s="33" t="n">
+        <v>-44871.68</v>
+      </c>
+      <c r="G12" s="33" t="n">
+        <v>-178313.48</v>
+      </c>
       <c r="H12" s="33" t="n"/>
-      <c r="I12" s="33" t="n"/>
+      <c r="I12" s="33" t="n">
+        <v>-141182.35</v>
+      </c>
       <c r="J12" s="33" t="n"/>
       <c r="K12" s="33" t="n">
-        <v>-44504.79</v>
+        <v>15</v>
       </c>
       <c r="L12" s="33" t="n">
-        <v>-44504.79</v>
-      </c>
-      <c r="M12" s="33" t="n">
-        <v>-44504.79</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M12" s="33" t="n"/>
       <c r="N12" s="33" t="n"/>
-      <c r="O12" s="33" t="n"/>
-      <c r="P12" s="33" t="n"/>
+      <c r="O12" s="33" t="n">
+        <v>15</v>
+      </c>
+      <c r="P12" s="33" t="n">
+        <v>15</v>
+      </c>
       <c r="Q12" s="34" t="n"/>
       <c r="R12" s="29">
         <f>SUM(E12:P12)</f>
@@ -2328,15 +2336,9 @@
       <c r="H20" s="27" t="n"/>
       <c r="I20" s="27" t="n"/>
       <c r="J20" s="27" t="n"/>
-      <c r="K20" s="27" t="n">
-        <v>53.96</v>
-      </c>
-      <c r="L20" s="27" t="n">
-        <v>53.96</v>
-      </c>
-      <c r="M20" s="27" t="n">
-        <v>53.96</v>
-      </c>
+      <c r="K20" s="27" t="n"/>
+      <c r="L20" s="27" t="n"/>
+      <c r="M20" s="27" t="n"/>
       <c r="N20" s="27" t="n"/>
       <c r="O20" s="27" t="n"/>
       <c r="P20" s="27" t="n"/>
@@ -2363,23 +2365,31 @@
         </is>
       </c>
       <c r="E21" s="27" t="n"/>
-      <c r="F21" s="27" t="n"/>
-      <c r="G21" s="27" t="n"/>
+      <c r="F21" s="27" t="n">
+        <v>186484.49</v>
+      </c>
+      <c r="G21" s="27" t="n">
+        <v>181243.36</v>
+      </c>
       <c r="H21" s="27" t="n"/>
-      <c r="I21" s="27" t="n"/>
+      <c r="I21" s="27" t="n">
+        <v>156308.72</v>
+      </c>
       <c r="J21" s="27" t="n"/>
       <c r="K21" s="27" t="n">
-        <v>184406.17</v>
+        <v>187247.07</v>
       </c>
       <c r="L21" s="27" t="n">
-        <v>184406.17</v>
-      </c>
-      <c r="M21" s="27" t="n">
-        <v>184406.17</v>
-      </c>
+        <v>133524.58</v>
+      </c>
+      <c r="M21" s="27" t="n"/>
       <c r="N21" s="27" t="n"/>
-      <c r="O21" s="27" t="n"/>
-      <c r="P21" s="27" t="n"/>
+      <c r="O21" s="27" t="n">
+        <v>219458.31</v>
+      </c>
+      <c r="P21" s="27" t="n">
+        <v>178216.58</v>
+      </c>
       <c r="Q21" s="32" t="n"/>
       <c r="R21" s="29">
         <f>SUM(E21:P21)</f>
@@ -2403,23 +2413,31 @@
         </is>
       </c>
       <c r="E22" s="27" t="n"/>
-      <c r="F22" s="27" t="n"/>
-      <c r="G22" s="27" t="n"/>
+      <c r="F22" s="27" t="n">
+        <v>4130.82</v>
+      </c>
+      <c r="G22" s="27" t="n">
+        <v>8650.059999999999</v>
+      </c>
       <c r="H22" s="27" t="n"/>
-      <c r="I22" s="27" t="n"/>
+      <c r="I22" s="27" t="n">
+        <v>10653.42</v>
+      </c>
       <c r="J22" s="27" t="n"/>
       <c r="K22" s="27" t="n">
-        <v>320.03</v>
+        <v>14398.4</v>
       </c>
       <c r="L22" s="27" t="n">
-        <v>320.03</v>
-      </c>
-      <c r="M22" s="27" t="n">
-        <v>320.03</v>
-      </c>
+        <v>5420.95</v>
+      </c>
+      <c r="M22" s="27" t="n"/>
       <c r="N22" s="27" t="n"/>
-      <c r="O22" s="27" t="n"/>
-      <c r="P22" s="27" t="n"/>
+      <c r="O22" s="27" t="n">
+        <v>9248.799999999999</v>
+      </c>
+      <c r="P22" s="27" t="n">
+        <v>10108.53</v>
+      </c>
       <c r="Q22" s="32" t="n"/>
       <c r="R22" s="29">
         <f>SUM(E22:P22)</f>
@@ -2477,23 +2495,31 @@
         </is>
       </c>
       <c r="E24" s="33" t="n"/>
-      <c r="F24" s="33" t="n"/>
-      <c r="G24" s="33" t="n"/>
+      <c r="F24" s="33" t="n">
+        <v>-9423.059999999999</v>
+      </c>
+      <c r="G24" s="33" t="n">
+        <v>-37445.82</v>
+      </c>
       <c r="H24" s="33" t="n"/>
-      <c r="I24" s="33" t="n"/>
+      <c r="I24" s="33" t="n">
+        <v>-29648.31</v>
+      </c>
       <c r="J24" s="33" t="n"/>
       <c r="K24" s="33" t="n">
-        <v>-9344.280000000001</v>
+        <v>-1548.84</v>
       </c>
       <c r="L24" s="33" t="n">
-        <v>-9344.280000000001</v>
-      </c>
-      <c r="M24" s="33" t="n">
-        <v>-9344.280000000001</v>
-      </c>
+        <v>-360.15</v>
+      </c>
+      <c r="M24" s="33" t="n"/>
       <c r="N24" s="33" t="n"/>
-      <c r="O24" s="33" t="n"/>
-      <c r="P24" s="33" t="n"/>
+      <c r="O24" s="33" t="n">
+        <v>-2931.56</v>
+      </c>
+      <c r="P24" s="33" t="n">
+        <v>-16359.94</v>
+      </c>
       <c r="Q24" s="34" t="n"/>
       <c r="R24" s="29">
         <f>SUM(E24:P24)</f>
@@ -2720,23 +2746,31 @@
         </is>
       </c>
       <c r="E31" s="27" t="n"/>
-      <c r="F31" s="27" t="n"/>
-      <c r="G31" s="27" t="n"/>
+      <c r="F31" s="27" t="n">
+        <v>536654</v>
+      </c>
+      <c r="G31" s="27" t="n">
+        <v>579361.91</v>
+      </c>
       <c r="H31" s="27" t="n"/>
-      <c r="I31" s="27" t="n"/>
+      <c r="I31" s="27" t="n">
+        <v>538443.98</v>
+      </c>
       <c r="J31" s="27" t="n"/>
       <c r="K31" s="27" t="n">
-        <v>789653.47</v>
+        <v>617734.97</v>
       </c>
       <c r="L31" s="27" t="n">
-        <v>789653.47</v>
-      </c>
-      <c r="M31" s="27" t="n">
-        <v>789653.47</v>
-      </c>
+        <v>435958.46</v>
+      </c>
+      <c r="M31" s="27" t="n"/>
       <c r="N31" s="27" t="n"/>
-      <c r="O31" s="27" t="n"/>
-      <c r="P31" s="27" t="n"/>
+      <c r="O31" s="27" t="n">
+        <v>650803.54</v>
+      </c>
+      <c r="P31" s="27" t="n">
+        <v>682592.72</v>
+      </c>
       <c r="Q31" s="32" t="n"/>
       <c r="R31" s="29">
         <f>SUM(E31:P31)</f>
@@ -2760,23 +2794,31 @@
         </is>
       </c>
       <c r="E32" s="27" t="n"/>
-      <c r="F32" s="27" t="n"/>
-      <c r="G32" s="27" t="n"/>
+      <c r="F32" s="27" t="n">
+        <v>31</v>
+      </c>
+      <c r="G32" s="27" t="n">
+        <v>31</v>
+      </c>
       <c r="H32" s="27" t="n"/>
-      <c r="I32" s="27" t="n"/>
+      <c r="I32" s="27" t="n">
+        <v>31</v>
+      </c>
       <c r="J32" s="27" t="n"/>
       <c r="K32" s="27" t="n">
-        <v>978</v>
+        <v>31</v>
       </c>
       <c r="L32" s="27" t="n">
-        <v>978</v>
-      </c>
-      <c r="M32" s="27" t="n">
-        <v>978</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M32" s="27" t="n"/>
       <c r="N32" s="27" t="n"/>
-      <c r="O32" s="27" t="n"/>
-      <c r="P32" s="27" t="n"/>
+      <c r="O32" s="27" t="n">
+        <v>31</v>
+      </c>
+      <c r="P32" s="27" t="n">
+        <v>31</v>
+      </c>
       <c r="Q32" s="32" t="n"/>
       <c r="R32" s="29">
         <f>SUM(E32:P32)</f>
@@ -2868,23 +2910,31 @@
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
-      <c r="F35" s="27" t="n"/>
-      <c r="G35" s="27" t="n"/>
+      <c r="F35" s="27" t="n">
+        <v>19670.59</v>
+      </c>
+      <c r="G35" s="27" t="n">
+        <v>41190.69</v>
+      </c>
       <c r="H35" s="27" t="n"/>
-      <c r="I35" s="27" t="n"/>
+      <c r="I35" s="27" t="n">
+        <v>50730.54</v>
+      </c>
       <c r="J35" s="27" t="n"/>
       <c r="K35" s="27" t="n">
-        <v>1523.96</v>
+        <v>68563.77</v>
       </c>
       <c r="L35" s="27" t="n">
-        <v>1523.96</v>
-      </c>
-      <c r="M35" s="27" t="n">
-        <v>1523.96</v>
-      </c>
+        <v>25814.09</v>
+      </c>
+      <c r="M35" s="27" t="n"/>
       <c r="N35" s="27" t="n"/>
-      <c r="O35" s="27" t="n"/>
-      <c r="P35" s="27" t="n"/>
+      <c r="O35" s="27" t="n">
+        <v>44041.96</v>
+      </c>
+      <c r="P35" s="27" t="n">
+        <v>48135.87</v>
+      </c>
       <c r="Q35" s="32" t="n"/>
       <c r="R35" s="29">
         <f>SUM(E35:P35)</f>
@@ -2947,15 +2997,9 @@
       <c r="H37" s="27" t="n"/>
       <c r="I37" s="27" t="n"/>
       <c r="J37" s="27" t="n"/>
-      <c r="K37" s="27" t="n">
-        <v>-127211.56</v>
-      </c>
-      <c r="L37" s="27" t="n">
-        <v>-127211.56</v>
-      </c>
-      <c r="M37" s="27" t="n">
-        <v>-127211.56</v>
-      </c>
+      <c r="K37" s="27" t="n"/>
+      <c r="L37" s="27" t="n"/>
+      <c r="M37" s="27" t="n"/>
       <c r="N37" s="27" t="n"/>
       <c r="O37" s="27" t="n"/>
       <c r="P37" s="27" t="n"/>
@@ -3078,23 +3122,31 @@
         </is>
       </c>
       <c r="E41" s="27" t="n"/>
-      <c r="F41" s="27" t="n"/>
-      <c r="G41" s="27" t="n"/>
+      <c r="F41" s="27" t="n">
+        <v>112565.26</v>
+      </c>
+      <c r="G41" s="27" t="n">
+        <v>121623.62</v>
+      </c>
       <c r="H41" s="27" t="n"/>
-      <c r="I41" s="27" t="n"/>
+      <c r="I41" s="27" t="n">
+        <v>112981.47</v>
+      </c>
       <c r="J41" s="27" t="n"/>
       <c r="K41" s="27" t="n">
-        <v>165739.6</v>
+        <v>128606.09</v>
       </c>
       <c r="L41" s="27" t="n">
-        <v>165739.6</v>
-      </c>
-      <c r="M41" s="27" t="n">
-        <v>165739.6</v>
-      </c>
+        <v>91484.60000000001</v>
+      </c>
+      <c r="M41" s="27" t="n"/>
       <c r="N41" s="27" t="n"/>
-      <c r="O41" s="27" t="n"/>
-      <c r="P41" s="27" t="n"/>
+      <c r="O41" s="27" t="n">
+        <v>135806.65</v>
+      </c>
+      <c r="P41" s="27" t="n">
+        <v>142651.73</v>
+      </c>
       <c r="Q41" s="32" t="n"/>
       <c r="R41" s="29">
         <f>SUM(E41:P41)</f>
@@ -3118,23 +3170,31 @@
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
-      <c r="F42" s="27" t="n"/>
-      <c r="G42" s="27" t="n"/>
+      <c r="F42" s="27" t="n">
+        <v>31</v>
+      </c>
+      <c r="G42" s="27" t="n">
+        <v>31</v>
+      </c>
       <c r="H42" s="27" t="n"/>
-      <c r="I42" s="27" t="n"/>
+      <c r="I42" s="27" t="n">
+        <v>31</v>
+      </c>
       <c r="J42" s="27" t="n"/>
       <c r="K42" s="27" t="n">
-        <v>205.38</v>
+        <v>31</v>
       </c>
       <c r="L42" s="27" t="n">
-        <v>205.38</v>
-      </c>
-      <c r="M42" s="27" t="n">
-        <v>205.38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M42" s="27" t="n"/>
       <c r="N42" s="27" t="n"/>
-      <c r="O42" s="27" t="n"/>
-      <c r="P42" s="27" t="n"/>
+      <c r="O42" s="27" t="n">
+        <v>31</v>
+      </c>
+      <c r="P42" s="27" t="n">
+        <v>31</v>
+      </c>
       <c r="Q42" s="32" t="n"/>
       <c r="R42" s="29">
         <f>SUM(E42:P42)</f>
@@ -3226,23 +3286,31 @@
         </is>
       </c>
       <c r="E45" s="27" t="n"/>
-      <c r="F45" s="27" t="n"/>
-      <c r="G45" s="27" t="n"/>
+      <c r="F45" s="27" t="n">
+        <v>4130.82</v>
+      </c>
+      <c r="G45" s="27" t="n">
+        <v>8650.059999999999</v>
+      </c>
       <c r="H45" s="27" t="n"/>
-      <c r="I45" s="27" t="n"/>
+      <c r="I45" s="27" t="n">
+        <v>10653.42</v>
+      </c>
       <c r="J45" s="27" t="n"/>
       <c r="K45" s="27" t="n">
-        <v>320.03</v>
+        <v>14398.4</v>
       </c>
       <c r="L45" s="27" t="n">
-        <v>320.03</v>
-      </c>
-      <c r="M45" s="27" t="n">
-        <v>320.03</v>
-      </c>
+        <v>5420.95</v>
+      </c>
+      <c r="M45" s="27" t="n"/>
       <c r="N45" s="27" t="n"/>
-      <c r="O45" s="27" t="n"/>
-      <c r="P45" s="27" t="n"/>
+      <c r="O45" s="27" t="n">
+        <v>9248.799999999999</v>
+      </c>
+      <c r="P45" s="27" t="n">
+        <v>10108.53</v>
+      </c>
       <c r="Q45" s="32" t="n"/>
       <c r="R45" s="29">
         <f>SUM(E45:P45)</f>
@@ -3305,15 +3373,9 @@
       <c r="H47" s="27" t="n"/>
       <c r="I47" s="27" t="n"/>
       <c r="J47" s="27" t="n"/>
-      <c r="K47" s="27" t="n">
-        <v>-26714.41</v>
-      </c>
-      <c r="L47" s="27" t="n">
-        <v>-26714.41</v>
-      </c>
-      <c r="M47" s="27" t="n">
-        <v>-26714.41</v>
-      </c>
+      <c r="K47" s="27" t="n"/>
+      <c r="L47" s="27" t="n"/>
+      <c r="M47" s="27" t="n"/>
       <c r="N47" s="27" t="n"/>
       <c r="O47" s="27" t="n"/>
       <c r="P47" s="27" t="n"/>
@@ -3621,29 +3683,31 @@
         <v>66</v>
       </c>
       <c r="E57" s="27" t="n"/>
-      <c r="F57" s="27" t="n"/>
-      <c r="G57" s="27" t="n"/>
+      <c r="F57" s="27" t="n">
+        <v>70706.89</v>
+      </c>
+      <c r="G57" s="27" t="n">
+        <v>16530.46</v>
+      </c>
       <c r="H57" s="27" t="n"/>
-      <c r="I57" s="27" t="n"/>
+      <c r="I57" s="27" t="n">
+        <v>21341.12</v>
+      </c>
       <c r="J57" s="27" t="n"/>
-      <c r="K57" s="27" t="inlineStr">
-        <is>
-          <t>35.885,28</t>
-        </is>
-      </c>
-      <c r="L57" s="27" t="inlineStr">
-        <is>
-          <t>35.885,28</t>
-        </is>
-      </c>
-      <c r="M57" s="27" t="inlineStr">
-        <is>
-          <t>35.885,28</t>
-        </is>
-      </c>
+      <c r="K57" s="27" t="n">
+        <v>59463.7</v>
+      </c>
+      <c r="L57" s="27" t="n">
+        <v>44895.03</v>
+      </c>
+      <c r="M57" s="27" t="n"/>
       <c r="N57" s="27" t="n"/>
-      <c r="O57" s="27" t="n"/>
-      <c r="P57" s="27" t="n"/>
+      <c r="O57" s="27" t="n">
+        <v>65596.46000000001</v>
+      </c>
+      <c r="P57" s="27" t="n">
+        <v>15508</v>
+      </c>
       <c r="Q57" s="32" t="n"/>
       <c r="R57" s="32" t="n"/>
       <c r="S57" s="32" t="n"/>
@@ -3759,23 +3823,31 @@
         </is>
       </c>
       <c r="E61" s="27" t="n"/>
-      <c r="F61" s="27" t="n"/>
-      <c r="G61" s="27" t="n"/>
+      <c r="F61" s="27" t="n">
+        <v>60</v>
+      </c>
+      <c r="G61" s="27" t="n">
+        <v>856.14</v>
+      </c>
       <c r="H61" s="27" t="n"/>
-      <c r="I61" s="27" t="n"/>
+      <c r="I61" s="27" t="n">
+        <v>60</v>
+      </c>
       <c r="J61" s="27" t="n"/>
       <c r="K61" s="27" t="n">
-        <v>1949.52</v>
+        <v>268.2</v>
       </c>
       <c r="L61" s="27" t="n">
-        <v>1949.52</v>
-      </c>
-      <c r="M61" s="27" t="n">
-        <v>1949.52</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M61" s="27" t="n"/>
       <c r="N61" s="27" t="n"/>
-      <c r="O61" s="27" t="n"/>
-      <c r="P61" s="27" t="n"/>
+      <c r="O61" s="27" t="n">
+        <v>60</v>
+      </c>
+      <c r="P61" s="27" t="n">
+        <v>60</v>
+      </c>
       <c r="Q61" s="32" t="n"/>
       <c r="R61" s="29">
         <f>SUM(E61:P61)</f>
@@ -3799,20 +3871,20 @@
         </is>
       </c>
       <c r="E62" s="27" t="n"/>
-      <c r="F62" s="27" t="n"/>
-      <c r="G62" s="27" t="n"/>
+      <c r="F62" s="27" t="n">
+        <v>61</v>
+      </c>
+      <c r="G62" s="27" t="n">
+        <v>61</v>
+      </c>
       <c r="H62" s="27" t="n"/>
-      <c r="I62" s="27" t="n"/>
+      <c r="I62" s="27" t="n">
+        <v>61</v>
+      </c>
       <c r="J62" s="27" t="n"/>
-      <c r="K62" s="27" t="n">
-        <v>12432.5</v>
-      </c>
-      <c r="L62" s="27" t="n">
-        <v>12432.5</v>
-      </c>
-      <c r="M62" s="27" t="n">
-        <v>12432.5</v>
-      </c>
+      <c r="K62" s="27" t="n"/>
+      <c r="L62" s="27" t="n"/>
+      <c r="M62" s="27" t="n"/>
       <c r="N62" s="27" t="n"/>
       <c r="O62" s="27" t="n"/>
       <c r="P62" s="27" t="n"/>
@@ -4492,15 +4564,15 @@
       <c r="V86" s="102" t="n"/>
     </row>
     <row r="87" ht="15.75" customHeight="1" s="74">
-      <c r="F87" s="120">
+      <c r="F87" s="244">
         <f>+F86/F75</f>
         <v/>
       </c>
-      <c r="P87" s="120">
+      <c r="P87" s="244">
         <f>+P86/P75</f>
         <v/>
       </c>
-      <c r="Q87" s="120" t="n"/>
+      <c r="Q87" s="244" t="n"/>
       <c r="V87" s="102" t="n"/>
     </row>
     <row r="88" ht="15.75" customHeight="1" s="74">
@@ -4564,19 +4636,19 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="3.77734375" customWidth="1" style="70" min="1" max="1"/>
     <col width="49.21875" customWidth="1" style="70" min="2" max="2"/>
     <col width="16.109375" customWidth="1" style="10" min="3" max="3"/>
     <col width="16.44140625" customWidth="1" style="70" min="4" max="4"/>
     <col width="11.109375" customWidth="1" style="70" min="5" max="5"/>
-    <col width="13.109375" customWidth="1" style="70" min="6" max="6"/>
+    <col width="13.21875" customWidth="1" style="70" min="6" max="6"/>
     <col width="11.109375" customWidth="1" style="70" min="7" max="12"/>
     <col width="11.88671875" customWidth="1" style="70" min="13" max="13"/>
     <col width="11.109375" customWidth="1" style="70" min="14" max="14"/>
     <col width="14.109375" customWidth="1" style="70" min="15" max="16"/>
-    <col width="13.109375" customWidth="1" style="70" min="17" max="17"/>
+    <col width="13.21875" customWidth="1" style="70" min="17" max="17"/>
     <col width="13.88671875" customWidth="1" style="70" min="18" max="18"/>
     <col width="12.5546875" customWidth="1" style="70" min="19" max="16384"/>
   </cols>
@@ -4740,20 +4812,42 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="135" t="n"/>
-      <c r="E8" s="135" t="n"/>
-      <c r="F8" s="136" t="n"/>
-      <c r="G8" s="135" t="n"/>
-      <c r="H8" s="135" t="n"/>
-      <c r="I8" s="135" t="n"/>
+      <c r="D8" s="135" t="n">
+        <v>46</v>
+      </c>
+      <c r="E8" s="135" t="n">
+        <v>47</v>
+      </c>
+      <c r="F8" s="136" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="135" t="n">
+        <v>47</v>
+      </c>
+      <c r="H8" s="135" t="n">
+        <v>49</v>
+      </c>
+      <c r="I8" s="135" t="n">
+        <v>50</v>
+      </c>
       <c r="J8" s="135" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="135" t="n">
         <v>50</v>
       </c>
-      <c r="K8" s="135" t="n"/>
-      <c r="L8" s="135" t="n"/>
-      <c r="M8" s="135" t="n"/>
-      <c r="N8" s="135" t="n"/>
-      <c r="O8" s="135" t="n"/>
+      <c r="L8" s="135" t="n">
+        <v>49</v>
+      </c>
+      <c r="M8" s="135" t="n">
+        <v>48</v>
+      </c>
+      <c r="N8" s="135" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" s="135" t="n">
+        <v>49</v>
+      </c>
       <c r="P8" s="145" t="n"/>
       <c r="Q8" s="138">
         <f>AVERAGE(D8:O8)</f>
@@ -4776,20 +4870,42 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D9" s="27" t="n"/>
-      <c r="E9" s="27" t="n"/>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
-      <c r="H9" s="27" t="n"/>
-      <c r="I9" s="27" t="n"/>
+      <c r="D9" s="27" t="n">
+        <v>99305.81</v>
+      </c>
+      <c r="E9" s="27" t="n">
+        <v>100682.15</v>
+      </c>
+      <c r="F9" s="27" t="n">
+        <v>21708.71</v>
+      </c>
+      <c r="G9" s="27" t="n">
+        <v>103488.39</v>
+      </c>
+      <c r="H9" s="27" t="n">
+        <v>106239.04</v>
+      </c>
+      <c r="I9" s="27" t="n">
+        <v>106346.21</v>
+      </c>
       <c r="J9" s="27" t="n">
-        <v>91023.50999999999</v>
-      </c>
-      <c r="K9" s="27" t="n"/>
-      <c r="L9" s="27" t="n"/>
-      <c r="M9" s="27" t="n"/>
-      <c r="N9" s="27" t="n"/>
-      <c r="O9" s="27" t="n"/>
+        <v>22011.16</v>
+      </c>
+      <c r="K9" s="27" t="n">
+        <v>107731.1</v>
+      </c>
+      <c r="L9" s="27" t="n">
+        <v>106251.85</v>
+      </c>
+      <c r="M9" s="27" t="n">
+        <v>106372.33</v>
+      </c>
+      <c r="N9" s="27" t="n">
+        <v>30634.01</v>
+      </c>
+      <c r="O9" s="27" t="n">
+        <v>111714.65</v>
+      </c>
       <c r="P9" s="70" t="n"/>
       <c r="Q9" s="147">
         <f>SUM(D9:O9)+Q15+Q21+Q27+Q33+Q39+Q45+Q51+Q58</f>
@@ -4811,20 +4927,42 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D10" s="52" t="n"/>
-      <c r="E10" s="52" t="n"/>
-      <c r="F10" s="52" t="n"/>
-      <c r="G10" s="52" t="n"/>
-      <c r="H10" s="52" t="n"/>
-      <c r="I10" s="52" t="n"/>
+      <c r="D10" s="52" t="n">
+        <v>15773.44</v>
+      </c>
+      <c r="E10" s="52" t="n">
+        <v>15773.1</v>
+      </c>
+      <c r="F10" s="52" t="n">
+        <v>1731.01</v>
+      </c>
+      <c r="G10" s="52" t="n">
+        <v>15878.67</v>
+      </c>
+      <c r="H10" s="52" t="n">
+        <v>15990.74</v>
+      </c>
+      <c r="I10" s="52" t="n">
+        <v>16666.36</v>
+      </c>
       <c r="J10" s="52" t="n">
-        <v>2825.92</v>
-      </c>
-      <c r="K10" s="52" t="n"/>
-      <c r="L10" s="52" t="n"/>
-      <c r="M10" s="52" t="n"/>
-      <c r="N10" s="52" t="n"/>
-      <c r="O10" s="52" t="n"/>
+        <v>1956.39</v>
+      </c>
+      <c r="K10" s="52" t="n">
+        <v>16762.51</v>
+      </c>
+      <c r="L10" s="52" t="n">
+        <v>16336.86</v>
+      </c>
+      <c r="M10" s="52" t="n">
+        <v>16456.6</v>
+      </c>
+      <c r="N10" s="52" t="n">
+        <v>2793.48</v>
+      </c>
+      <c r="O10" s="52" t="n">
+        <v>19265.17</v>
+      </c>
       <c r="P10" s="141" t="n"/>
       <c r="Q10" s="142">
         <f>SUM(D10:O10)+Q16+Q22+Q28+Q34+Q40+Q46+Q52+Q59</f>
@@ -5103,20 +5241,36 @@
           <t>07</t>
         </is>
       </c>
-      <c r="D20" s="135" t="n"/>
-      <c r="E20" s="135" t="n"/>
+      <c r="D20" s="135" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" s="135" t="n">
+        <v>8</v>
+      </c>
       <c r="F20" s="136" t="n"/>
-      <c r="G20" s="135" t="n"/>
-      <c r="H20" s="135" t="n"/>
-      <c r="I20" s="135" t="n"/>
-      <c r="J20" s="135" t="n">
-        <v>4</v>
-      </c>
-      <c r="K20" s="135" t="n"/>
-      <c r="L20" s="135" t="n"/>
-      <c r="M20" s="135" t="n"/>
+      <c r="G20" s="135" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" s="135" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" s="135" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" s="135" t="n"/>
+      <c r="K20" s="135" t="n">
+        <v>11</v>
+      </c>
+      <c r="L20" s="135" t="n">
+        <v>13</v>
+      </c>
+      <c r="M20" s="135" t="n">
+        <v>10</v>
+      </c>
       <c r="N20" s="135" t="n"/>
-      <c r="O20" s="135" t="n"/>
+      <c r="O20" s="135" t="n">
+        <v>10</v>
+      </c>
       <c r="P20" s="145" t="n"/>
       <c r="Q20" s="138">
         <f>AVERAGE(D20:O20)</f>
@@ -5135,20 +5289,36 @@
           <t>08</t>
         </is>
       </c>
-      <c r="D21" s="27" t="n"/>
-      <c r="E21" s="27" t="n"/>
+      <c r="D21" s="27" t="n">
+        <v>21370</v>
+      </c>
+      <c r="E21" s="27" t="n">
+        <v>21579.13</v>
+      </c>
       <c r="F21" s="27" t="n"/>
-      <c r="G21" s="27" t="n"/>
-      <c r="H21" s="27" t="n"/>
-      <c r="I21" s="27" t="n"/>
-      <c r="J21" s="27" t="n">
-        <v>1629.85</v>
-      </c>
-      <c r="K21" s="27" t="n"/>
-      <c r="L21" s="27" t="n"/>
-      <c r="M21" s="27" t="n"/>
+      <c r="G21" s="27" t="n">
+        <v>20711.34</v>
+      </c>
+      <c r="H21" s="27" t="n">
+        <v>20972.33</v>
+      </c>
+      <c r="I21" s="27" t="n">
+        <v>23092.07</v>
+      </c>
+      <c r="J21" s="27" t="n"/>
+      <c r="K21" s="27" t="n">
+        <v>23224.4</v>
+      </c>
+      <c r="L21" s="27" t="n">
+        <v>28721.37</v>
+      </c>
+      <c r="M21" s="27" t="n">
+        <v>21179.75</v>
+      </c>
       <c r="N21" s="27" t="n"/>
-      <c r="O21" s="27" t="n"/>
+      <c r="O21" s="27" t="n">
+        <v>26682.77</v>
+      </c>
       <c r="P21" s="70" t="n"/>
       <c r="Q21" s="147">
         <f>+SUM(D21:O21)</f>
@@ -5167,20 +5337,36 @@
           <t>09</t>
         </is>
       </c>
-      <c r="D22" s="52" t="n"/>
-      <c r="E22" s="52" t="n"/>
+      <c r="D22" s="52" t="n">
+        <v>1718.7</v>
+      </c>
+      <c r="E22" s="52" t="n">
+        <v>1660.34</v>
+      </c>
       <c r="F22" s="52" t="n"/>
-      <c r="G22" s="52" t="n"/>
-      <c r="H22" s="52" t="n"/>
-      <c r="I22" s="52" t="n"/>
-      <c r="J22" s="52" t="n">
-        <v>128.3</v>
-      </c>
-      <c r="K22" s="52" t="n"/>
-      <c r="L22" s="52" t="n"/>
-      <c r="M22" s="52" t="n"/>
+      <c r="G22" s="52" t="n">
+        <v>1703.2</v>
+      </c>
+      <c r="H22" s="52" t="n">
+        <v>1812.15</v>
+      </c>
+      <c r="I22" s="52" t="n">
+        <v>1973.9</v>
+      </c>
+      <c r="J22" s="52" t="n"/>
+      <c r="K22" s="52" t="n">
+        <v>2437.03</v>
+      </c>
+      <c r="L22" s="52" t="n">
+        <v>2319.4</v>
+      </c>
+      <c r="M22" s="52" t="n">
+        <v>1416.37</v>
+      </c>
       <c r="N22" s="52" t="n"/>
-      <c r="O22" s="52" t="n"/>
+      <c r="O22" s="52" t="n">
+        <v>2209.92</v>
+      </c>
       <c r="P22" s="141" t="n"/>
       <c r="Q22" s="142">
         <f>+SUM(D22:O22)</f>
@@ -6531,7 +6717,7 @@
       <c r="N71" s="153" t="n"/>
     </row>
     <row r="72" ht="15.75" customHeight="1" s="74">
-      <c r="B72" s="178">
+      <c r="B72" s="245">
         <f>+'N.2 MEMORANDUM'!C8</f>
         <v/>
       </c>
@@ -6562,7 +6748,7 @@
       <c r="Q72" s="83" t="n"/>
     </row>
     <row r="73" ht="15.75" customHeight="1" s="74">
-      <c r="B73" s="159" t="n"/>
+      <c r="B73" s="246" t="n"/>
       <c r="C73" s="10" t="n"/>
       <c r="D73" s="70" t="n"/>
       <c r="E73" s="70" t="n"/>
@@ -6896,7 +7082,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1" s="74"/>
     <row r="97" ht="15.75" customHeight="1" s="74">
-      <c r="F97" s="170">
+      <c r="F97" s="247">
         <f>+F95/F93</f>
         <v/>
       </c>
@@ -6935,11 +7121,11 @@
       <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="3.77734375" customWidth="1" style="70" min="1" max="1"/>
     <col width="36.5546875" customWidth="1" style="70" min="2" max="2"/>
-    <col width="8.44140625" customWidth="1" style="70" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="70" min="3" max="3"/>
     <col width="12.77734375" customWidth="1" style="70" min="4" max="4"/>
     <col width="11.109375" customWidth="1" style="70" min="5" max="12"/>
     <col width="11.88671875" customWidth="1" style="70" min="13" max="13"/>
@@ -6992,17 +7178,17 @@
           <t>MODELOS 115</t>
         </is>
       </c>
-      <c r="E5" s="244" t="n"/>
-      <c r="F5" s="244" t="n"/>
-      <c r="G5" s="244" t="n"/>
-      <c r="H5" s="244" t="n"/>
-      <c r="I5" s="244" t="n"/>
-      <c r="J5" s="244" t="n"/>
-      <c r="K5" s="244" t="n"/>
-      <c r="L5" s="244" t="n"/>
-      <c r="M5" s="244" t="n"/>
-      <c r="N5" s="244" t="n"/>
-      <c r="O5" s="244" t="n"/>
+      <c r="E5" s="248" t="n"/>
+      <c r="F5" s="248" t="n"/>
+      <c r="G5" s="248" t="n"/>
+      <c r="H5" s="248" t="n"/>
+      <c r="I5" s="248" t="n"/>
+      <c r="J5" s="248" t="n"/>
+      <c r="K5" s="248" t="n"/>
+      <c r="L5" s="248" t="n"/>
+      <c r="M5" s="248" t="n"/>
+      <c r="N5" s="248" t="n"/>
+      <c r="O5" s="248" t="n"/>
       <c r="P5" s="129" t="inlineStr">
         <is>
           <t>MOD 180</t>
@@ -7487,11 +7673,11 @@
       <c r="N21" s="177" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="74">
-      <c r="B22" s="178">
+      <c r="B22" s="245">
         <f>+'N.2 MEMORANDUM'!C8</f>
         <v/>
       </c>
-      <c r="C22" s="178" t="n"/>
+      <c r="C22" s="245" t="n"/>
       <c r="D22" s="83" t="n"/>
       <c r="E22" s="83" t="n"/>
       <c r="F22" s="179">
@@ -7571,17 +7757,17 @@
       <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" style="181" min="1" max="1"/>
     <col width="24" customWidth="1" style="181" min="2" max="2"/>
     <col width="12.5546875" customWidth="1" style="181" min="3" max="3"/>
     <col width="11" customWidth="1" style="181" min="4" max="4"/>
-    <col width="15.6640625" customWidth="1" style="181" min="5" max="5"/>
+    <col width="15.77734375" customWidth="1" style="181" min="5" max="5"/>
     <col width="15.21875" customWidth="1" style="181" min="6" max="6"/>
-    <col width="15.6640625" customWidth="1" style="181" min="7" max="14"/>
-    <col width="18.109375" customWidth="1" style="181" min="15" max="15"/>
-    <col width="17.109375" customWidth="1" style="181" min="16" max="18"/>
+    <col width="15.77734375" customWidth="1" style="181" min="7" max="14"/>
+    <col width="18.21875" customWidth="1" style="181" min="15" max="15"/>
+    <col width="17.21875" customWidth="1" style="181" min="16" max="18"/>
     <col width="12.5546875" customWidth="1" style="181" min="19" max="16384"/>
   </cols>
   <sheetData>
@@ -7620,7 +7806,7 @@
       <c r="F4" s="14" t="n"/>
       <c r="G4" s="14" t="n"/>
       <c r="H4" s="14" t="n"/>
-      <c r="I4" s="245" t="n"/>
+      <c r="I4" s="249" t="n"/>
       <c r="J4" s="237" t="inlineStr">
         <is>
           <t>Percepciones NO derivadas incapacidad</t>
@@ -7629,7 +7815,7 @@
       <c r="K4" s="14" t="n"/>
       <c r="L4" s="14" t="n"/>
       <c r="M4" s="14" t="n"/>
-      <c r="N4" s="245" t="n"/>
+      <c r="N4" s="249" t="n"/>
     </row>
     <row r="5" ht="14.4" customHeight="1" s="74">
       <c r="B5" s="185" t="inlineStr">
@@ -7642,27 +7828,27 @@
           <t>Dinerarias</t>
         </is>
       </c>
-      <c r="F5" s="245" t="n"/>
+      <c r="F5" s="249" t="n"/>
       <c r="G5" s="238" t="inlineStr">
         <is>
           <t>Especie</t>
         </is>
       </c>
       <c r="H5" s="14" t="n"/>
-      <c r="I5" s="245" t="n"/>
+      <c r="I5" s="249" t="n"/>
       <c r="J5" s="238" t="inlineStr">
         <is>
           <t>Dinerarias</t>
         </is>
       </c>
-      <c r="K5" s="245" t="n"/>
+      <c r="K5" s="249" t="n"/>
       <c r="L5" s="238" t="inlineStr">
         <is>
           <t>Especie</t>
         </is>
       </c>
       <c r="M5" s="14" t="n"/>
-      <c r="N5" s="245" t="n"/>
+      <c r="N5" s="249" t="n"/>
     </row>
     <row r="6" ht="28.8" customHeight="1" s="74">
       <c r="B6" s="186" t="inlineStr">
@@ -11920,15 +12106,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col width="3.77734375" customWidth="1" style="190" min="1" max="1"/>
-    <col width="22.33203125" customWidth="1" style="190" min="2" max="2"/>
+    <col width="22.21875" customWidth="1" style="190" min="2" max="2"/>
     <col width="16.109375" customWidth="1" style="190" min="3" max="3"/>
     <col width="14.21875" customWidth="1" style="190" min="4" max="4"/>
     <col width="14.33203125" customWidth="1" style="190" min="5" max="5"/>
     <col width="13.21875" customWidth="1" style="190" min="6" max="6"/>
-    <col width="15.6640625" customWidth="1" style="190" min="7" max="7"/>
+    <col width="15.77734375" customWidth="1" style="190" min="7" max="7"/>
     <col width="16.109375" customWidth="1" style="190" min="8" max="8"/>
     <col width="14.33203125" customWidth="1" style="190" min="9" max="9"/>
     <col width="12.6640625" customWidth="1" style="190" min="10" max="16384"/>
@@ -11964,7 +12150,7 @@
           <t>L00</t>
         </is>
       </c>
-      <c r="F5" s="246" t="n"/>
+      <c r="F5" s="250" t="n"/>
       <c r="G5" s="193" t="inlineStr">
         <is>
           <t>REF</t>
@@ -12026,8 +12212,8 @@
         <f>RLCs!D13</f>
         <v/>
       </c>
-      <c r="G7" s="199" t="n"/>
-      <c r="H7" s="200">
+      <c r="G7" s="251" t="n"/>
+      <c r="H7" s="252">
         <f>E7/D7</f>
         <v/>
       </c>
@@ -12050,8 +12236,8 @@
         <f>RLCs!H13</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="n"/>
-      <c r="H8" s="200">
+      <c r="G8" s="251" t="n"/>
+      <c r="H8" s="252">
         <f>E8/D8</f>
         <v/>
       </c>
@@ -12074,8 +12260,8 @@
         <f>RLCs!L13</f>
         <v/>
       </c>
-      <c r="G9" s="199" t="n"/>
-      <c r="H9" s="200">
+      <c r="G9" s="251" t="n"/>
+      <c r="H9" s="252">
         <f>E9/D9</f>
         <v/>
       </c>
@@ -12098,8 +12284,8 @@
         <f>RLCs!P13</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="n"/>
-      <c r="H10" s="200">
+      <c r="G10" s="251" t="n"/>
+      <c r="H10" s="252">
         <f>E10/D10</f>
         <v/>
       </c>
@@ -12122,8 +12308,8 @@
         <f>RLCs!T13</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="n"/>
-      <c r="H11" s="200">
+      <c r="G11" s="251" t="n"/>
+      <c r="H11" s="252">
         <f>E11/D11</f>
         <v/>
       </c>
@@ -12146,8 +12332,8 @@
         <f>RLCs!D27</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="n"/>
-      <c r="H12" s="200">
+      <c r="G12" s="251" t="n"/>
+      <c r="H12" s="252">
         <f>E12/D12</f>
         <v/>
       </c>
@@ -12170,8 +12356,8 @@
         <f>RLCs!H27</f>
         <v/>
       </c>
-      <c r="G13" s="199" t="n"/>
-      <c r="H13" s="200">
+      <c r="G13" s="251" t="n"/>
+      <c r="H13" s="252">
         <f>E13/D13</f>
         <v/>
       </c>
@@ -12194,8 +12380,8 @@
         <f>RLCs!L27</f>
         <v/>
       </c>
-      <c r="G14" s="199" t="n"/>
-      <c r="H14" s="200">
+      <c r="G14" s="251" t="n"/>
+      <c r="H14" s="252">
         <f>E14/D14</f>
         <v/>
       </c>
@@ -12218,8 +12404,8 @@
         <f>RLCs!P27</f>
         <v/>
       </c>
-      <c r="G15" s="199" t="n"/>
-      <c r="H15" s="200">
+      <c r="G15" s="251" t="n"/>
+      <c r="H15" s="252">
         <f>E15/D15</f>
         <v/>
       </c>
@@ -12242,8 +12428,8 @@
         <f>RLCs!T27</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="n"/>
-      <c r="H16" s="200">
+      <c r="G16" s="251" t="n"/>
+      <c r="H16" s="252">
         <f>E16/D16</f>
         <v/>
       </c>
@@ -12266,8 +12452,8 @@
         <f>RLCs!D40</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="n"/>
-      <c r="H17" s="200">
+      <c r="G17" s="251" t="n"/>
+      <c r="H17" s="252">
         <f>E17/D17</f>
         <v/>
       </c>
@@ -12290,8 +12476,8 @@
         <f>RLCs!H40</f>
         <v/>
       </c>
-      <c r="G18" s="199" t="n"/>
-      <c r="H18" s="200">
+      <c r="G18" s="251" t="n"/>
+      <c r="H18" s="252">
         <f>E18/D18</f>
         <v/>
       </c>
@@ -12425,7 +12611,7 @@
       <c r="E28" s="216" t="n"/>
       <c r="F28" s="216" t="n"/>
       <c r="G28" s="216" t="n"/>
-      <c r="H28" s="217">
+      <c r="H28" s="253">
         <f>+H27/E19</f>
         <v/>
       </c>
@@ -12465,7 +12651,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.6640625" customWidth="1" style="190" min="1" max="16384"/>
   </cols>
@@ -13199,18 +13385,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="R28:T28"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="N14:P14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:T28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5118055555555555" footer="0.5118055555555555"/>
   <pageSetup orientation="portrait" paperSize="9" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
@@ -13230,10 +13416,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.6640625" customWidth="1" style="223" min="1" max="1"/>
-    <col width="16" customWidth="1" style="223" min="2" max="2"/>
+    <col width="15.88671875" customWidth="1" style="223" min="2" max="2"/>
     <col width="12.6640625" customWidth="1" style="223" min="3" max="8"/>
     <col width="13.88671875" customWidth="1" style="223" min="9" max="9"/>
     <col width="10.44140625" customWidth="1" style="223" min="10" max="10"/>
@@ -13256,8 +13442,8 @@
           <t>N.2</t>
         </is>
       </c>
-      <c r="K2" s="247" t="n"/>
-      <c r="L2" s="248" t="n"/>
+      <c r="K2" s="254" t="n"/>
+      <c r="L2" s="255" t="n"/>
     </row>
     <row r="3" ht="13.2" customHeight="1" s="74">
       <c r="B3" s="70" t="n"/>
@@ -13268,8 +13454,8 @@
       <c r="G3" s="70" t="n"/>
       <c r="H3" s="70" t="n"/>
       <c r="I3" s="70" t="n"/>
-      <c r="J3" s="249" t="n"/>
-      <c r="L3" s="250" t="n"/>
+      <c r="J3" s="256" t="n"/>
+      <c r="L3" s="257" t="n"/>
     </row>
     <row r="4" ht="13.2" customHeight="1" s="74">
       <c r="B4" s="70" t="n"/>
@@ -13280,9 +13466,9 @@
       <c r="G4" s="70" t="n"/>
       <c r="H4" s="70" t="n"/>
       <c r="I4" s="70" t="n"/>
-      <c r="J4" s="251" t="n"/>
-      <c r="K4" s="252" t="n"/>
-      <c r="L4" s="253" t="n"/>
+      <c r="J4" s="258" t="n"/>
+      <c r="K4" s="259" t="n"/>
+      <c r="L4" s="260" t="n"/>
     </row>
     <row r="5">
       <c r="B5" s="70" t="n"/>
@@ -13336,7 +13522,7 @@
         </is>
       </c>
       <c r="K7" s="227" t="n"/>
-      <c r="L7" s="228" t="n"/>
+      <c r="L7" s="261" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="225" t="inlineStr">
@@ -13344,7 +13530,7 @@
           <t>AUDITORIA</t>
         </is>
       </c>
-      <c r="C8" s="229" t="n">
+      <c r="C8" s="262" t="n">
         <v>44561</v>
       </c>
       <c r="E8" s="181" t="n"/>

--- a/Plantillas modelos impuestos UHY.xlsx
+++ b/Plantillas modelos impuestos UHY.xlsx
@@ -1916,25 +1916,17 @@
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
-      <c r="F9" s="27" t="n">
-        <v>888020.71</v>
-      </c>
-      <c r="G9" s="27" t="n">
-        <v>863062.86</v>
-      </c>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
-      <c r="I9" s="27" t="n">
-        <v>744326.63</v>
-      </c>
+      <c r="I9" s="27" t="n"/>
       <c r="J9" s="27" t="n"/>
-      <c r="K9" s="27" t="n">
-        <v>891652.3199999999</v>
-      </c>
-      <c r="L9" s="27" t="n">
-        <v>635831.0600000001</v>
-      </c>
+      <c r="K9" s="27" t="n"/>
+      <c r="L9" s="27" t="n"/>
       <c r="M9" s="27" t="n"/>
-      <c r="N9" s="27" t="n"/>
+      <c r="N9" s="27" t="n">
+        <v>857426.33</v>
+      </c>
       <c r="O9" s="27" t="n">
         <v>1045038.81</v>
       </c>
@@ -1964,25 +1956,17 @@
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="n">
-        <v>19670.59</v>
-      </c>
-      <c r="G10" s="27" t="n">
-        <v>41190.69</v>
-      </c>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
-      <c r="I10" s="27" t="n">
-        <v>50730.54</v>
-      </c>
+      <c r="I10" s="27" t="n"/>
       <c r="J10" s="27" t="n"/>
-      <c r="K10" s="27" t="n">
-        <v>68563.77</v>
-      </c>
-      <c r="L10" s="27" t="n">
-        <v>25814.09</v>
-      </c>
+      <c r="K10" s="27" t="n"/>
+      <c r="L10" s="27" t="n"/>
       <c r="M10" s="27" t="n"/>
-      <c r="N10" s="27" t="n"/>
+      <c r="N10" s="27" t="n">
+        <v>31464.04</v>
+      </c>
       <c r="O10" s="27" t="n">
         <v>44041.96</v>
       </c>
@@ -2046,25 +2030,17 @@
         </is>
       </c>
       <c r="E12" s="33" t="n"/>
-      <c r="F12" s="33" t="n">
-        <v>-44871.68</v>
-      </c>
-      <c r="G12" s="33" t="n">
-        <v>-178313.48</v>
-      </c>
+      <c r="F12" s="33" t="n"/>
+      <c r="G12" s="33" t="n"/>
       <c r="H12" s="33" t="n"/>
-      <c r="I12" s="33" t="n">
-        <v>-141182.35</v>
-      </c>
+      <c r="I12" s="33" t="n"/>
       <c r="J12" s="33" t="n"/>
-      <c r="K12" s="33" t="n">
+      <c r="K12" s="33" t="n"/>
+      <c r="L12" s="33" t="n"/>
+      <c r="M12" s="33" t="n"/>
+      <c r="N12" s="33" t="n">
         <v>15</v>
       </c>
-      <c r="L12" s="33" t="n">
-        <v>15</v>
-      </c>
-      <c r="M12" s="33" t="n"/>
-      <c r="N12" s="33" t="n"/>
       <c r="O12" s="33" t="n">
         <v>15</v>
       </c>
@@ -2365,25 +2341,17 @@
         </is>
       </c>
       <c r="E21" s="27" t="n"/>
-      <c r="F21" s="27" t="n">
-        <v>186484.49</v>
-      </c>
-      <c r="G21" s="27" t="n">
-        <v>181243.36</v>
-      </c>
+      <c r="F21" s="27" t="n"/>
+      <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
-      <c r="I21" s="27" t="n">
-        <v>156308.72</v>
-      </c>
+      <c r="I21" s="27" t="n"/>
       <c r="J21" s="27" t="n"/>
-      <c r="K21" s="27" t="n">
-        <v>187247.07</v>
-      </c>
-      <c r="L21" s="27" t="n">
-        <v>133524.58</v>
-      </c>
+      <c r="K21" s="27" t="n"/>
+      <c r="L21" s="27" t="n"/>
       <c r="M21" s="27" t="n"/>
-      <c r="N21" s="27" t="n"/>
+      <c r="N21" s="27" t="n">
+        <v>180059.7</v>
+      </c>
       <c r="O21" s="27" t="n">
         <v>219458.31</v>
       </c>
@@ -2413,25 +2381,17 @@
         </is>
       </c>
       <c r="E22" s="27" t="n"/>
-      <c r="F22" s="27" t="n">
-        <v>4130.82</v>
-      </c>
-      <c r="G22" s="27" t="n">
-        <v>8650.059999999999</v>
-      </c>
+      <c r="F22" s="27" t="n"/>
+      <c r="G22" s="27" t="n"/>
       <c r="H22" s="27" t="n"/>
-      <c r="I22" s="27" t="n">
-        <v>10653.42</v>
-      </c>
+      <c r="I22" s="27" t="n"/>
       <c r="J22" s="27" t="n"/>
-      <c r="K22" s="27" t="n">
-        <v>14398.4</v>
-      </c>
-      <c r="L22" s="27" t="n">
-        <v>5420.95</v>
-      </c>
+      <c r="K22" s="27" t="n"/>
+      <c r="L22" s="27" t="n"/>
       <c r="M22" s="27" t="n"/>
-      <c r="N22" s="27" t="n"/>
+      <c r="N22" s="27" t="n">
+        <v>6607.46</v>
+      </c>
       <c r="O22" s="27" t="n">
         <v>9248.799999999999</v>
       </c>
@@ -2495,25 +2455,17 @@
         </is>
       </c>
       <c r="E24" s="33" t="n"/>
-      <c r="F24" s="33" t="n">
-        <v>-9423.059999999999</v>
-      </c>
-      <c r="G24" s="33" t="n">
-        <v>-37445.82</v>
-      </c>
+      <c r="F24" s="33" t="n"/>
+      <c r="G24" s="33" t="n"/>
       <c r="H24" s="33" t="n"/>
-      <c r="I24" s="33" t="n">
-        <v>-29648.31</v>
-      </c>
+      <c r="I24" s="33" t="n"/>
       <c r="J24" s="33" t="n"/>
-      <c r="K24" s="33" t="n">
-        <v>-1548.84</v>
-      </c>
-      <c r="L24" s="33" t="n">
-        <v>-360.15</v>
-      </c>
+      <c r="K24" s="33" t="n"/>
+      <c r="L24" s="33" t="n"/>
       <c r="M24" s="33" t="n"/>
-      <c r="N24" s="33" t="n"/>
+      <c r="N24" s="33" t="n">
+        <v>-1739.86</v>
+      </c>
       <c r="O24" s="33" t="n">
         <v>-2931.56</v>
       </c>
@@ -2746,25 +2698,17 @@
         </is>
       </c>
       <c r="E31" s="27" t="n"/>
-      <c r="F31" s="27" t="n">
-        <v>536654</v>
-      </c>
-      <c r="G31" s="27" t="n">
-        <v>579361.91</v>
-      </c>
+      <c r="F31" s="27" t="n"/>
+      <c r="G31" s="27" t="n"/>
       <c r="H31" s="27" t="n"/>
-      <c r="I31" s="27" t="n">
-        <v>538443.98</v>
-      </c>
+      <c r="I31" s="27" t="n"/>
       <c r="J31" s="27" t="n"/>
-      <c r="K31" s="27" t="n">
-        <v>617734.97</v>
-      </c>
-      <c r="L31" s="27" t="n">
-        <v>435958.46</v>
-      </c>
+      <c r="K31" s="27" t="n"/>
+      <c r="L31" s="27" t="n"/>
       <c r="M31" s="27" t="n"/>
-      <c r="N31" s="27" t="n"/>
+      <c r="N31" s="27" t="n">
+        <v>659578.34</v>
+      </c>
       <c r="O31" s="27" t="n">
         <v>650803.54</v>
       </c>
@@ -2794,25 +2738,17 @@
         </is>
       </c>
       <c r="E32" s="27" t="n"/>
-      <c r="F32" s="27" t="n">
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="27" t="n"/>
+      <c r="I32" s="27" t="n"/>
+      <c r="J32" s="27" t="n"/>
+      <c r="K32" s="27" t="n"/>
+      <c r="L32" s="27" t="n"/>
+      <c r="M32" s="27" t="n"/>
+      <c r="N32" s="27" t="n">
         <v>31</v>
       </c>
-      <c r="G32" s="27" t="n">
-        <v>31</v>
-      </c>
-      <c r="H32" s="27" t="n"/>
-      <c r="I32" s="27" t="n">
-        <v>31</v>
-      </c>
-      <c r="J32" s="27" t="n"/>
-      <c r="K32" s="27" t="n">
-        <v>31</v>
-      </c>
-      <c r="L32" s="27" t="n">
-        <v>31</v>
-      </c>
-      <c r="M32" s="27" t="n"/>
-      <c r="N32" s="27" t="n"/>
       <c r="O32" s="27" t="n">
         <v>31</v>
       </c>
@@ -2910,25 +2846,17 @@
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
-      <c r="F35" s="27" t="n">
-        <v>19670.59</v>
-      </c>
-      <c r="G35" s="27" t="n">
-        <v>41190.69</v>
-      </c>
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="27" t="n"/>
       <c r="H35" s="27" t="n"/>
-      <c r="I35" s="27" t="n">
-        <v>50730.54</v>
-      </c>
+      <c r="I35" s="27" t="n"/>
       <c r="J35" s="27" t="n"/>
-      <c r="K35" s="27" t="n">
-        <v>68563.77</v>
-      </c>
-      <c r="L35" s="27" t="n">
-        <v>25814.09</v>
-      </c>
+      <c r="K35" s="27" t="n"/>
+      <c r="L35" s="27" t="n"/>
       <c r="M35" s="27" t="n"/>
-      <c r="N35" s="27" t="n"/>
+      <c r="N35" s="27" t="n">
+        <v>31464.04</v>
+      </c>
       <c r="O35" s="27" t="n">
         <v>44041.96</v>
       </c>
@@ -3122,25 +3050,17 @@
         </is>
       </c>
       <c r="E41" s="27" t="n"/>
-      <c r="F41" s="27" t="n">
-        <v>112565.26</v>
-      </c>
-      <c r="G41" s="27" t="n">
-        <v>121623.62</v>
-      </c>
+      <c r="F41" s="27" t="n"/>
+      <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
-      <c r="I41" s="27" t="n">
-        <v>112981.47</v>
-      </c>
+      <c r="I41" s="27" t="n"/>
       <c r="J41" s="27" t="n"/>
-      <c r="K41" s="27" t="n">
-        <v>128606.09</v>
-      </c>
-      <c r="L41" s="27" t="n">
-        <v>91484.60000000001</v>
-      </c>
+      <c r="K41" s="27" t="n"/>
+      <c r="L41" s="27" t="n"/>
       <c r="M41" s="27" t="n"/>
-      <c r="N41" s="27" t="n"/>
+      <c r="N41" s="27" t="n">
+        <v>137685.98</v>
+      </c>
       <c r="O41" s="27" t="n">
         <v>135806.65</v>
       </c>
@@ -3170,25 +3090,17 @@
         </is>
       </c>
       <c r="E42" s="27" t="n"/>
-      <c r="F42" s="27" t="n">
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
+      <c r="I42" s="27" t="n"/>
+      <c r="J42" s="27" t="n"/>
+      <c r="K42" s="27" t="n"/>
+      <c r="L42" s="27" t="n"/>
+      <c r="M42" s="27" t="n"/>
+      <c r="N42" s="27" t="n">
         <v>31</v>
       </c>
-      <c r="G42" s="27" t="n">
-        <v>31</v>
-      </c>
-      <c r="H42" s="27" t="n"/>
-      <c r="I42" s="27" t="n">
-        <v>31</v>
-      </c>
-      <c r="J42" s="27" t="n"/>
-      <c r="K42" s="27" t="n">
-        <v>31</v>
-      </c>
-      <c r="L42" s="27" t="n">
-        <v>31</v>
-      </c>
-      <c r="M42" s="27" t="n"/>
-      <c r="N42" s="27" t="n"/>
       <c r="O42" s="27" t="n">
         <v>31</v>
       </c>
@@ -3286,25 +3198,17 @@
         </is>
       </c>
       <c r="E45" s="27" t="n"/>
-      <c r="F45" s="27" t="n">
-        <v>4130.82</v>
-      </c>
-      <c r="G45" s="27" t="n">
-        <v>8650.059999999999</v>
-      </c>
+      <c r="F45" s="27" t="n"/>
+      <c r="G45" s="27" t="n"/>
       <c r="H45" s="27" t="n"/>
-      <c r="I45" s="27" t="n">
-        <v>10653.42</v>
-      </c>
+      <c r="I45" s="27" t="n"/>
       <c r="J45" s="27" t="n"/>
-      <c r="K45" s="27" t="n">
-        <v>14398.4</v>
-      </c>
-      <c r="L45" s="27" t="n">
-        <v>5420.95</v>
-      </c>
+      <c r="K45" s="27" t="n"/>
+      <c r="L45" s="27" t="n"/>
       <c r="M45" s="27" t="n"/>
-      <c r="N45" s="27" t="n"/>
+      <c r="N45" s="27" t="n">
+        <v>6607.46</v>
+      </c>
       <c r="O45" s="27" t="n">
         <v>9248.799999999999</v>
       </c>
@@ -3683,25 +3587,17 @@
         <v>66</v>
       </c>
       <c r="E57" s="27" t="n"/>
-      <c r="F57" s="27" t="n">
-        <v>70706.89</v>
-      </c>
-      <c r="G57" s="27" t="n">
-        <v>16530.46</v>
-      </c>
+      <c r="F57" s="27" t="n"/>
+      <c r="G57" s="27" t="n"/>
       <c r="H57" s="27" t="n"/>
-      <c r="I57" s="27" t="n">
-        <v>21341.12</v>
-      </c>
+      <c r="I57" s="27" t="n"/>
       <c r="J57" s="27" t="n"/>
-      <c r="K57" s="27" t="n">
-        <v>59463.7</v>
-      </c>
-      <c r="L57" s="27" t="n">
-        <v>44895.03</v>
-      </c>
+      <c r="K57" s="27" t="n"/>
+      <c r="L57" s="27" t="n"/>
       <c r="M57" s="27" t="n"/>
-      <c r="N57" s="27" t="n"/>
+      <c r="N57" s="27" t="n">
+        <v>46238.37</v>
+      </c>
       <c r="O57" s="27" t="n">
         <v>65596.46000000001</v>
       </c>
@@ -3823,25 +3719,17 @@
         </is>
       </c>
       <c r="E61" s="27" t="n"/>
-      <c r="F61" s="27" t="n">
-        <v>60</v>
-      </c>
-      <c r="G61" s="27" t="n">
-        <v>856.14</v>
-      </c>
+      <c r="F61" s="27" t="n"/>
+      <c r="G61" s="27" t="n"/>
       <c r="H61" s="27" t="n"/>
-      <c r="I61" s="27" t="n">
-        <v>60</v>
-      </c>
+      <c r="I61" s="27" t="n"/>
       <c r="J61" s="27" t="n"/>
-      <c r="K61" s="27" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="L61" s="27" t="n">
-        <v>60</v>
-      </c>
+      <c r="K61" s="27" t="n"/>
+      <c r="L61" s="27" t="n"/>
       <c r="M61" s="27" t="n"/>
-      <c r="N61" s="27" t="n"/>
+      <c r="N61" s="27" t="n">
+        <v>1062.08</v>
+      </c>
       <c r="O61" s="27" t="n">
         <v>60</v>
       </c>
@@ -3871,16 +3759,10 @@
         </is>
       </c>
       <c r="E62" s="27" t="n"/>
-      <c r="F62" s="27" t="n">
-        <v>61</v>
-      </c>
-      <c r="G62" s="27" t="n">
-        <v>61</v>
-      </c>
+      <c r="F62" s="27" t="n"/>
+      <c r="G62" s="27" t="n"/>
       <c r="H62" s="27" t="n"/>
-      <c r="I62" s="27" t="n">
-        <v>61</v>
-      </c>
+      <c r="I62" s="27" t="n"/>
       <c r="J62" s="27" t="n"/>
       <c r="K62" s="27" t="n"/>
       <c r="L62" s="27" t="n"/>
@@ -4812,42 +4694,18 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="135" t="n">
-        <v>46</v>
-      </c>
-      <c r="E8" s="135" t="n">
-        <v>47</v>
-      </c>
-      <c r="F8" s="136" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="135" t="n">
-        <v>47</v>
-      </c>
-      <c r="H8" s="135" t="n">
-        <v>49</v>
-      </c>
-      <c r="I8" s="135" t="n">
-        <v>50</v>
-      </c>
-      <c r="J8" s="135" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" s="135" t="n">
-        <v>50</v>
-      </c>
-      <c r="L8" s="135" t="n">
-        <v>49</v>
-      </c>
-      <c r="M8" s="135" t="n">
-        <v>48</v>
-      </c>
-      <c r="N8" s="135" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" s="135" t="n">
-        <v>49</v>
-      </c>
+      <c r="D8" s="135" t="n"/>
+      <c r="E8" s="135" t="n"/>
+      <c r="F8" s="136" t="n"/>
+      <c r="G8" s="135" t="n"/>
+      <c r="H8" s="135" t="n"/>
+      <c r="I8" s="135" t="n"/>
+      <c r="J8" s="135" t="n"/>
+      <c r="K8" s="135" t="n"/>
+      <c r="L8" s="135" t="n"/>
+      <c r="M8" s="135" t="n"/>
+      <c r="N8" s="135" t="n"/>
+      <c r="O8" s="135" t="n"/>
       <c r="P8" s="145" t="n"/>
       <c r="Q8" s="138">
         <f>AVERAGE(D8:O8)</f>
@@ -4870,42 +4728,18 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D9" s="27" t="n">
-        <v>99305.81</v>
-      </c>
-      <c r="E9" s="27" t="n">
-        <v>100682.15</v>
-      </c>
-      <c r="F9" s="27" t="n">
-        <v>21708.71</v>
-      </c>
-      <c r="G9" s="27" t="n">
-        <v>103488.39</v>
-      </c>
-      <c r="H9" s="27" t="n">
-        <v>106239.04</v>
-      </c>
-      <c r="I9" s="27" t="n">
-        <v>106346.21</v>
-      </c>
-      <c r="J9" s="27" t="n">
-        <v>22011.16</v>
-      </c>
-      <c r="K9" s="27" t="n">
-        <v>107731.1</v>
-      </c>
-      <c r="L9" s="27" t="n">
-        <v>106251.85</v>
-      </c>
-      <c r="M9" s="27" t="n">
-        <v>106372.33</v>
-      </c>
-      <c r="N9" s="27" t="n">
-        <v>30634.01</v>
-      </c>
-      <c r="O9" s="27" t="n">
-        <v>111714.65</v>
-      </c>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+      <c r="I9" s="27" t="n"/>
+      <c r="J9" s="27" t="n"/>
+      <c r="K9" s="27" t="n"/>
+      <c r="L9" s="27" t="n"/>
+      <c r="M9" s="27" t="n"/>
+      <c r="N9" s="27" t="n"/>
+      <c r="O9" s="27" t="n"/>
       <c r="P9" s="70" t="n"/>
       <c r="Q9" s="147">
         <f>SUM(D9:O9)+Q15+Q21+Q27+Q33+Q39+Q45+Q51+Q58</f>
@@ -4927,42 +4761,18 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D10" s="52" t="n">
-        <v>15773.44</v>
-      </c>
-      <c r="E10" s="52" t="n">
-        <v>15773.1</v>
-      </c>
-      <c r="F10" s="52" t="n">
-        <v>1731.01</v>
-      </c>
-      <c r="G10" s="52" t="n">
-        <v>15878.67</v>
-      </c>
-      <c r="H10" s="52" t="n">
-        <v>15990.74</v>
-      </c>
-      <c r="I10" s="52" t="n">
-        <v>16666.36</v>
-      </c>
-      <c r="J10" s="52" t="n">
-        <v>1956.39</v>
-      </c>
-      <c r="K10" s="52" t="n">
-        <v>16762.51</v>
-      </c>
-      <c r="L10" s="52" t="n">
-        <v>16336.86</v>
-      </c>
-      <c r="M10" s="52" t="n">
-        <v>16456.6</v>
-      </c>
-      <c r="N10" s="52" t="n">
-        <v>2793.48</v>
-      </c>
-      <c r="O10" s="52" t="n">
-        <v>19265.17</v>
-      </c>
+      <c r="D10" s="52" t="n"/>
+      <c r="E10" s="52" t="n"/>
+      <c r="F10" s="52" t="n"/>
+      <c r="G10" s="52" t="n"/>
+      <c r="H10" s="52" t="n"/>
+      <c r="I10" s="52" t="n"/>
+      <c r="J10" s="52" t="n"/>
+      <c r="K10" s="52" t="n"/>
+      <c r="L10" s="52" t="n"/>
+      <c r="M10" s="52" t="n"/>
+      <c r="N10" s="52" t="n"/>
+      <c r="O10" s="52" t="n"/>
       <c r="P10" s="141" t="n"/>
       <c r="Q10" s="142">
         <f>SUM(D10:O10)+Q16+Q22+Q28+Q34+Q40+Q46+Q52+Q59</f>
@@ -5241,36 +5051,18 @@
           <t>07</t>
         </is>
       </c>
-      <c r="D20" s="135" t="n">
-        <v>8</v>
-      </c>
-      <c r="E20" s="135" t="n">
-        <v>8</v>
-      </c>
+      <c r="D20" s="135" t="n"/>
+      <c r="E20" s="135" t="n"/>
       <c r="F20" s="136" t="n"/>
-      <c r="G20" s="135" t="n">
-        <v>8</v>
-      </c>
-      <c r="H20" s="135" t="n">
-        <v>10</v>
-      </c>
-      <c r="I20" s="135" t="n">
-        <v>10</v>
-      </c>
+      <c r="G20" s="135" t="n"/>
+      <c r="H20" s="135" t="n"/>
+      <c r="I20" s="135" t="n"/>
       <c r="J20" s="135" t="n"/>
-      <c r="K20" s="135" t="n">
-        <v>11</v>
-      </c>
-      <c r="L20" s="135" t="n">
-        <v>13</v>
-      </c>
-      <c r="M20" s="135" t="n">
-        <v>10</v>
-      </c>
+      <c r="K20" s="135" t="n"/>
+      <c r="L20" s="135" t="n"/>
+      <c r="M20" s="135" t="n"/>
       <c r="N20" s="135" t="n"/>
-      <c r="O20" s="135" t="n">
-        <v>10</v>
-      </c>
+      <c r="O20" s="135" t="n"/>
       <c r="P20" s="145" t="n"/>
       <c r="Q20" s="138">
         <f>AVERAGE(D20:O20)</f>
@@ -5289,36 +5081,18 @@
           <t>08</t>
         </is>
       </c>
-      <c r="D21" s="27" t="n">
-        <v>21370</v>
-      </c>
-      <c r="E21" s="27" t="n">
-        <v>21579.13</v>
-      </c>
+      <c r="D21" s="27" t="n"/>
+      <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
-      <c r="G21" s="27" t="n">
-        <v>20711.34</v>
-      </c>
-      <c r="H21" s="27" t="n">
-        <v>20972.33</v>
-      </c>
-      <c r="I21" s="27" t="n">
-        <v>23092.07</v>
-      </c>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
+      <c r="I21" s="27" t="n"/>
       <c r="J21" s="27" t="n"/>
-      <c r="K21" s="27" t="n">
-        <v>23224.4</v>
-      </c>
-      <c r="L21" s="27" t="n">
-        <v>28721.37</v>
-      </c>
-      <c r="M21" s="27" t="n">
-        <v>21179.75</v>
-      </c>
+      <c r="K21" s="27" t="n"/>
+      <c r="L21" s="27" t="n"/>
+      <c r="M21" s="27" t="n"/>
       <c r="N21" s="27" t="n"/>
-      <c r="O21" s="27" t="n">
-        <v>26682.77</v>
-      </c>
+      <c r="O21" s="27" t="n"/>
       <c r="P21" s="70" t="n"/>
       <c r="Q21" s="147">
         <f>+SUM(D21:O21)</f>
@@ -5337,36 +5111,18 @@
           <t>09</t>
         </is>
       </c>
-      <c r="D22" s="52" t="n">
-        <v>1718.7</v>
-      </c>
-      <c r="E22" s="52" t="n">
-        <v>1660.34</v>
-      </c>
+      <c r="D22" s="52" t="n"/>
+      <c r="E22" s="52" t="n"/>
       <c r="F22" s="52" t="n"/>
-      <c r="G22" s="52" t="n">
-        <v>1703.2</v>
-      </c>
-      <c r="H22" s="52" t="n">
-        <v>1812.15</v>
-      </c>
-      <c r="I22" s="52" t="n">
-        <v>1973.9</v>
-      </c>
+      <c r="G22" s="52" t="n"/>
+      <c r="H22" s="52" t="n"/>
+      <c r="I22" s="52" t="n"/>
       <c r="J22" s="52" t="n"/>
-      <c r="K22" s="52" t="n">
-        <v>2437.03</v>
-      </c>
-      <c r="L22" s="52" t="n">
-        <v>2319.4</v>
-      </c>
-      <c r="M22" s="52" t="n">
-        <v>1416.37</v>
-      </c>
+      <c r="K22" s="52" t="n"/>
+      <c r="L22" s="52" t="n"/>
+      <c r="M22" s="52" t="n"/>
       <c r="N22" s="52" t="n"/>
-      <c r="O22" s="52" t="n">
-        <v>2209.92</v>
-      </c>
+      <c r="O22" s="52" t="n"/>
       <c r="P22" s="141" t="n"/>
       <c r="Q22" s="142">
         <f>+SUM(D22:O22)</f>
